--- a/plots/q-stats.xlsx
+++ b/plots/q-stats.xlsx
@@ -1030,8 +1030,8 @@
   <dimension ref="A1:EY53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="ED1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="ES3" sqref="ES3"/>
+      <pane xSplit="1" topLeftCell="ET1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="ET22" sqref="ET22:EY22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11710,8 +11710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EY55"/>
   <sheetViews>
-    <sheetView topLeftCell="EE1" workbookViewId="0">
-      <selection activeCell="ES12" sqref="ES12"/>
+    <sheetView topLeftCell="EP1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12658,583 +12658,583 @@
     </row>
     <row r="4" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="12">
-        <v>1599</v>
+        <v>300000</v>
       </c>
       <c r="C4" s="12">
-        <v>213</v>
+        <v>300000</v>
       </c>
       <c r="D4" s="12">
-        <v>11</v>
+        <v>300000</v>
       </c>
       <c r="E4" s="12">
-        <v>47</v>
+        <v>300000</v>
       </c>
       <c r="F4" s="12">
-        <v>4408</v>
+        <v>300000</v>
       </c>
       <c r="G4" s="12">
-        <v>10991</v>
+        <v>300000</v>
       </c>
       <c r="H4" s="12">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I4" s="12">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="J4" s="12">
-        <v>36</v>
+        <v>300000</v>
       </c>
       <c r="K4" s="12">
-        <v>219</v>
+        <v>300000</v>
       </c>
       <c r="L4" s="12">
-        <v>11</v>
+        <v>300000</v>
       </c>
       <c r="M4" s="12">
-        <v>119</v>
+        <v>300000</v>
       </c>
       <c r="N4" s="12">
-        <v>14512</v>
+        <v>300000</v>
       </c>
       <c r="O4" s="12">
-        <v>192</v>
+        <v>300000</v>
       </c>
       <c r="P4" s="12">
-        <v>300000</v>
+        <v>64475</v>
       </c>
       <c r="Q4" s="12">
         <v>300000</v>
       </c>
       <c r="R4" s="12">
-        <v>3267</v>
+        <v>300000</v>
       </c>
       <c r="S4" s="12">
-        <v>563</v>
+        <v>300000</v>
       </c>
       <c r="T4" s="12">
-        <v>408</v>
+        <v>300000</v>
       </c>
       <c r="U4" s="12">
-        <v>8661</v>
+        <v>300000</v>
       </c>
       <c r="V4" s="12">
-        <v>1508</v>
+        <v>300000</v>
       </c>
       <c r="W4" s="12">
-        <v>6</v>
+        <v>300000</v>
       </c>
       <c r="X4" s="12">
-        <v>23</v>
+        <v>300000</v>
       </c>
       <c r="Y4" s="12">
-        <v>372</v>
+        <v>300000</v>
       </c>
       <c r="Z4" s="12">
-        <v>3115</v>
+        <v>300000</v>
       </c>
       <c r="AA4" s="12">
-        <v>1171</v>
+        <v>300000</v>
       </c>
       <c r="AB4" s="12">
-        <v>56</v>
+        <v>300000</v>
       </c>
       <c r="AC4" s="12">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="AD4" s="12">
-        <v>51</v>
+        <v>300000</v>
       </c>
       <c r="AE4" s="12">
-        <v>3721</v>
+        <v>300000</v>
       </c>
       <c r="AF4" s="12">
-        <v>45</v>
+        <v>300000</v>
       </c>
       <c r="AG4" s="12">
         <v>300000</v>
       </c>
       <c r="AH4" s="12">
-        <v>10541</v>
+        <v>300000</v>
       </c>
       <c r="AI4" s="12">
-        <v>192</v>
+        <v>300000</v>
       </c>
       <c r="AJ4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AK4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AL4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AM4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AN4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AO4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AP4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AQ4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AR4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AS4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AT4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AU4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AV4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AW4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AX4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AY4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AZ4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BA4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BB4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BC4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BD4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BE4" s="12">
+        <v>7215</v>
+      </c>
+      <c r="BF4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BG4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BH4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BI4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BJ4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BK4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BM4" s="12">
+        <v>304</v>
+      </c>
+      <c r="BN4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BO4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BP4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BQ4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BR4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BS4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BT4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BU4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BV4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BW4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BX4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BY4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BZ4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CA4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CB4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CC4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CD4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CE4" s="12">
+        <v>56001</v>
+      </c>
+      <c r="CF4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CG4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CH4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CI4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CJ4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CK4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CL4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CM4" s="12">
+        <v>266</v>
+      </c>
+      <c r="CN4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CO4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CP4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CQ4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CR4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CS4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CT4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CU4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CV4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CW4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CX4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CY4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CZ4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DA4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DB4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DC4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DD4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DE4" s="12">
+        <v>26</v>
+      </c>
+      <c r="DF4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DG4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DH4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DI4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DJ4" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DK4" s="12">
         <v>28</v>
       </c>
-      <c r="AK4" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AL4" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AM4" s="12">
-        <v>19351</v>
-      </c>
-      <c r="AN4" s="12">
-        <v>158</v>
-      </c>
-      <c r="AO4" s="12">
-        <v>20853</v>
-      </c>
-      <c r="AP4" s="12">
-        <v>1440</v>
-      </c>
-      <c r="AQ4" s="12">
-        <v>20179</v>
-      </c>
-      <c r="AR4" s="12">
-        <v>20120</v>
-      </c>
-      <c r="AS4" s="12">
-        <v>23</v>
-      </c>
-      <c r="AT4" s="12">
-        <v>23</v>
-      </c>
-      <c r="AU4" s="12">
-        <v>18</v>
-      </c>
-      <c r="AV4" s="12">
-        <v>3090</v>
-      </c>
-      <c r="AW4" s="12">
-        <v>205</v>
-      </c>
-      <c r="AX4" s="12">
-        <v>28586</v>
-      </c>
-      <c r="AY4" s="12">
-        <v>7824</v>
-      </c>
-      <c r="AZ4" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BA4" s="12">
-        <v>5118</v>
-      </c>
-      <c r="BB4" s="12">
-        <v>144</v>
-      </c>
-      <c r="BC4" s="12">
-        <v>18245</v>
-      </c>
-      <c r="BD4" s="12">
-        <v>5597</v>
-      </c>
-      <c r="BE4" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BF4" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BG4" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BH4" s="12">
-        <v>5589</v>
-      </c>
-      <c r="BI4" s="12">
-        <v>37</v>
-      </c>
-      <c r="BJ4" s="12">
-        <v>8</v>
-      </c>
-      <c r="BK4" s="12">
-        <v>4205</v>
-      </c>
-      <c r="BL4" s="12">
-        <v>17</v>
-      </c>
-      <c r="BM4" s="12">
-        <v>840</v>
-      </c>
-      <c r="BN4" s="12">
-        <v>58157</v>
-      </c>
-      <c r="BO4" s="12">
-        <v>1472</v>
-      </c>
-      <c r="BP4" s="12">
-        <v>306</v>
-      </c>
-      <c r="BQ4" s="12">
-        <v>178</v>
-      </c>
-      <c r="BR4" s="12">
-        <v>12</v>
-      </c>
-      <c r="BS4" s="12">
-        <v>5</v>
-      </c>
-      <c r="BT4" s="12">
-        <v>14</v>
-      </c>
-      <c r="BU4" s="12">
-        <v>24</v>
-      </c>
-      <c r="BV4" s="12">
-        <v>1542</v>
-      </c>
-      <c r="BW4" s="12">
-        <v>296</v>
-      </c>
-      <c r="BX4" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BY4" s="12">
-        <v>5796</v>
-      </c>
-      <c r="BZ4" s="12">
-        <v>139</v>
-      </c>
-      <c r="CA4" s="12">
-        <v>759</v>
-      </c>
-      <c r="CB4" s="12">
-        <v>55218</v>
-      </c>
-      <c r="CC4" s="12">
-        <v>13</v>
-      </c>
-      <c r="CD4" s="12">
-        <v>17</v>
-      </c>
-      <c r="CE4" s="12">
-        <v>52697</v>
-      </c>
-      <c r="CF4" s="12">
-        <v>18</v>
-      </c>
-      <c r="CG4" s="12">
-        <v>40216</v>
-      </c>
-      <c r="CH4" s="12">
-        <v>4</v>
-      </c>
-      <c r="CI4" s="12">
-        <v>47</v>
-      </c>
-      <c r="CJ4" s="12">
-        <v>50</v>
-      </c>
-      <c r="CK4" s="12">
-        <v>334</v>
-      </c>
-      <c r="CL4" s="12">
-        <v>157</v>
-      </c>
-      <c r="CM4" s="12">
-        <v>97</v>
-      </c>
-      <c r="CN4" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CO4" s="12">
-        <v>46</v>
-      </c>
-      <c r="CP4" s="12">
-        <v>5470</v>
-      </c>
-      <c r="CQ4" s="12">
-        <v>7</v>
-      </c>
-      <c r="CR4" s="12">
-        <v>847</v>
-      </c>
-      <c r="CS4" s="12">
-        <v>92</v>
-      </c>
-      <c r="CT4" s="12">
-        <v>257</v>
-      </c>
-      <c r="CU4" s="12">
-        <v>80</v>
-      </c>
-      <c r="CV4" s="12">
-        <v>33142</v>
-      </c>
-      <c r="CW4" s="12">
-        <v>20</v>
-      </c>
-      <c r="CX4" s="12">
-        <v>1018</v>
-      </c>
-      <c r="CY4" s="12">
-        <v>27</v>
-      </c>
-      <c r="CZ4" s="12">
-        <v>21718</v>
-      </c>
-      <c r="DA4" s="12">
-        <v>1734</v>
-      </c>
-      <c r="DB4" s="12">
-        <v>11</v>
-      </c>
-      <c r="DC4" s="12">
-        <v>31</v>
-      </c>
-      <c r="DD4" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DE4" s="12">
-        <v>67</v>
-      </c>
-      <c r="DF4" s="12">
-        <v>19</v>
-      </c>
-      <c r="DG4" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DH4" s="12">
-        <v>46</v>
-      </c>
-      <c r="DI4" s="12">
-        <v>24</v>
-      </c>
-      <c r="DJ4" s="12">
-        <v>19</v>
-      </c>
-      <c r="DK4" s="12">
-        <v>20</v>
-      </c>
       <c r="DL4" s="12">
-        <v>288</v>
+        <v>300000</v>
       </c>
       <c r="DM4" s="12">
-        <v>13</v>
+        <v>300000</v>
       </c>
       <c r="DN4" s="12">
         <v>300000</v>
       </c>
       <c r="DO4" s="12">
-        <v>2600</v>
+        <v>300000</v>
       </c>
       <c r="DP4" s="12">
-        <v>1993</v>
+        <v>300000</v>
       </c>
       <c r="DQ4" s="12">
-        <v>838</v>
+        <v>300000</v>
       </c>
       <c r="DR4" s="12">
-        <v>82</v>
+        <v>300000</v>
       </c>
       <c r="DS4" s="12">
-        <v>20</v>
+        <v>300000</v>
       </c>
       <c r="DT4" s="12">
         <v>300000</v>
       </c>
       <c r="DU4" s="12">
-        <v>171</v>
+        <v>2225</v>
       </c>
       <c r="DV4" s="12">
         <v>300000</v>
       </c>
       <c r="DW4" s="12">
-        <v>20</v>
+        <v>300000</v>
       </c>
       <c r="DX4" s="12">
         <v>300000</v>
       </c>
       <c r="DY4" s="12">
-        <v>400</v>
+        <v>300000</v>
       </c>
       <c r="DZ4" s="12">
-        <v>21</v>
+        <v>300000</v>
       </c>
       <c r="EA4" s="12">
-        <v>241</v>
+        <v>300000</v>
       </c>
       <c r="EB4" s="12">
-        <v>7220</v>
+        <v>7174</v>
       </c>
       <c r="EC4" s="12">
-        <v>216914</v>
+        <v>300000</v>
       </c>
       <c r="ED4" s="12">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="EE4" s="12">
-        <v>853</v>
+        <v>300000</v>
       </c>
       <c r="EF4" s="12">
-        <v>3</v>
+        <v>300000</v>
       </c>
       <c r="EG4" s="12">
-        <v>263156</v>
+        <v>300000</v>
       </c>
       <c r="EH4" s="12">
-        <v>13</v>
+        <v>300000</v>
       </c>
       <c r="EI4" s="12">
-        <v>18856</v>
+        <v>300000</v>
       </c>
       <c r="EJ4" s="12">
         <v>300000</v>
       </c>
       <c r="EK4" s="12">
-        <v>4989</v>
+        <v>300000</v>
       </c>
       <c r="EL4" s="12">
-        <v>5360</v>
+        <v>300000</v>
       </c>
       <c r="EM4" s="12">
         <v>300000</v>
       </c>
       <c r="EN4" s="12">
-        <v>65344</v>
+        <v>300000</v>
       </c>
       <c r="EO4" s="12">
-        <v>300000</v>
+        <v>5255</v>
       </c>
       <c r="EP4" s="12">
-        <v>737</v>
+        <v>300000</v>
       </c>
       <c r="EQ4" s="12">
         <v>300000</v>
       </c>
       <c r="ES4" s="10">
-        <f t="shared" ref="ES4:ES8" si="0">COUNTIF(B4:EQ4,"&gt;299999")</f>
-        <v>21</v>
+        <f>COUNTIF(B4:EQ4,"&gt;299999")</f>
+        <v>132</v>
       </c>
       <c r="ET4" s="11">
-        <f t="shared" ref="ET4:ET8" si="1">MIN(B4:EQ4)</f>
-        <v>3</v>
+        <f>MIN(B4:EQ4)</f>
+        <v>26</v>
       </c>
       <c r="EU4" s="11">
-        <f t="shared" ref="EU4:EU8" si="2">_xlfn.PERCENTILE.EXC(B4:EQ4,0.25)</f>
-        <v>37.75</v>
+        <f>_xlfn.PERCENTILE.EXC(B4:EQ4,0.25)</f>
+        <v>300000</v>
       </c>
       <c r="EV4" s="11">
-        <f t="shared" ref="EV4:EV8" si="3">MEDIAN(B4:EQ4)</f>
-        <v>485.5</v>
+        <f>MEDIAN(B4:EQ4)</f>
+        <v>300000</v>
       </c>
       <c r="EW4" s="11">
-        <f t="shared" ref="EW4:EW8" si="4">AVERAGE(B4:EQ4)</f>
-        <v>50687.719178082189</v>
+        <f>AVERAGE(B4:EQ4)</f>
+        <v>272214.80821917806</v>
       </c>
       <c r="EX4" s="11">
-        <f t="shared" ref="EX4:EX8" si="5">_xlfn.PERCENTILE.EXC(B4:EQ4,0.75)</f>
-        <v>18397.75</v>
+        <f>_xlfn.PERCENTILE.EXC(B4:EQ4,0.75)</f>
+        <v>300000</v>
       </c>
       <c r="EY4" s="11">
-        <f t="shared" ref="EY4:EY8" si="6">MAX(B4:EQ4)</f>
+        <f>MAX(B4:EQ4)</f>
         <v>300000</v>
       </c>
     </row>
     <row r="5" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="12">
-        <v>300000</v>
+        <v>62</v>
       </c>
       <c r="C5" s="12">
-        <v>300000</v>
+        <v>31</v>
       </c>
       <c r="D5" s="12">
-        <v>300000</v>
+        <v>67</v>
       </c>
       <c r="E5" s="12">
-        <v>300000</v>
+        <v>126</v>
       </c>
       <c r="F5" s="12">
-        <v>300000</v>
+        <v>399</v>
       </c>
       <c r="G5" s="12">
-        <v>300000</v>
+        <v>53637</v>
       </c>
       <c r="H5" s="12">
-        <v>31</v>
+        <v>299</v>
       </c>
       <c r="I5" s="12">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="J5" s="12">
-        <v>300000</v>
+        <v>341</v>
       </c>
       <c r="K5" s="12">
-        <v>300000</v>
+        <v>478</v>
       </c>
       <c r="L5" s="12">
-        <v>300000</v>
+        <v>163</v>
       </c>
       <c r="M5" s="12">
-        <v>300000</v>
+        <v>1047</v>
       </c>
       <c r="N5" s="12">
-        <v>300000</v>
+        <v>820</v>
       </c>
       <c r="O5" s="12">
-        <v>300000</v>
+        <v>483</v>
       </c>
       <c r="P5" s="12">
-        <v>64475</v>
+        <v>1345</v>
       </c>
       <c r="Q5" s="12">
-        <v>300000</v>
+        <v>65585</v>
       </c>
       <c r="R5" s="12">
-        <v>300000</v>
+        <v>3593</v>
       </c>
       <c r="S5" s="12">
-        <v>300000</v>
+        <v>1506</v>
       </c>
       <c r="T5" s="12">
         <v>300000</v>
       </c>
       <c r="U5" s="12">
-        <v>300000</v>
+        <v>3813</v>
       </c>
       <c r="V5" s="12">
-        <v>300000</v>
+        <v>3191</v>
       </c>
       <c r="W5" s="12">
-        <v>300000</v>
+        <v>58</v>
       </c>
       <c r="X5" s="12">
-        <v>300000</v>
+        <v>266</v>
       </c>
       <c r="Y5" s="12">
-        <v>300000</v>
+        <v>1402</v>
       </c>
       <c r="Z5" s="12">
-        <v>300000</v>
+        <v>375</v>
       </c>
       <c r="AA5" s="12">
-        <v>300000</v>
+        <v>1233</v>
       </c>
       <c r="AB5" s="12">
-        <v>300000</v>
+        <v>225</v>
       </c>
       <c r="AC5" s="12">
-        <v>129</v>
+        <v>429</v>
       </c>
       <c r="AD5" s="12">
-        <v>300000</v>
+        <v>646</v>
       </c>
       <c r="AE5" s="12">
-        <v>300000</v>
+        <v>18768</v>
       </c>
       <c r="AF5" s="12">
         <v>300000</v>
       </c>
       <c r="AG5" s="12">
-        <v>300000</v>
+        <v>137</v>
       </c>
       <c r="AH5" s="12">
-        <v>300000</v>
+        <v>25830</v>
       </c>
       <c r="AI5" s="12">
-        <v>300000</v>
+        <v>7754</v>
       </c>
       <c r="AJ5" s="12">
-        <v>300000</v>
+        <v>45</v>
       </c>
       <c r="AK5" s="12">
         <v>300000</v>
@@ -13246,355 +13246,355 @@
         <v>300000</v>
       </c>
       <c r="AN5" s="12">
-        <v>300000</v>
+        <v>400</v>
       </c>
       <c r="AO5" s="12">
-        <v>300000</v>
+        <v>2250</v>
       </c>
       <c r="AP5" s="12">
-        <v>300000</v>
+        <v>458</v>
       </c>
       <c r="AQ5" s="12">
-        <v>300000</v>
+        <v>517</v>
       </c>
       <c r="AR5" s="12">
-        <v>300000</v>
+        <v>538</v>
       </c>
       <c r="AS5" s="12">
-        <v>300000</v>
+        <v>802</v>
       </c>
       <c r="AT5" s="12">
-        <v>300000</v>
+        <v>107</v>
       </c>
       <c r="AU5" s="12">
-        <v>300000</v>
+        <v>4326</v>
       </c>
       <c r="AV5" s="12">
-        <v>300000</v>
+        <v>52977</v>
       </c>
       <c r="AW5" s="12">
-        <v>300000</v>
+        <v>165</v>
       </c>
       <c r="AX5" s="12">
-        <v>300000</v>
+        <v>53</v>
       </c>
       <c r="AY5" s="12">
-        <v>300000</v>
+        <v>12993</v>
       </c>
       <c r="AZ5" s="12">
         <v>300000</v>
       </c>
       <c r="BA5" s="12">
-        <v>300000</v>
+        <v>13174</v>
       </c>
       <c r="BB5" s="12">
-        <v>300000</v>
+        <v>752</v>
       </c>
       <c r="BC5" s="12">
-        <v>300000</v>
+        <v>154748</v>
       </c>
       <c r="BD5" s="12">
-        <v>300000</v>
+        <v>4624</v>
       </c>
       <c r="BE5" s="12">
-        <v>7215</v>
+        <v>1273</v>
       </c>
       <c r="BF5" s="12">
         <v>300000</v>
       </c>
       <c r="BG5" s="12">
-        <v>300000</v>
+        <v>301</v>
       </c>
       <c r="BH5" s="12">
-        <v>300000</v>
+        <v>8475</v>
       </c>
       <c r="BI5" s="12">
-        <v>300000</v>
+        <v>92</v>
       </c>
       <c r="BJ5" s="12">
-        <v>300000</v>
+        <v>112</v>
       </c>
       <c r="BK5" s="12">
-        <v>300000</v>
+        <v>7826</v>
       </c>
       <c r="BL5" s="12">
-        <v>300000</v>
+        <v>125</v>
       </c>
       <c r="BM5" s="12">
-        <v>304</v>
+        <v>1292</v>
       </c>
       <c r="BN5" s="12">
         <v>300000</v>
       </c>
       <c r="BO5" s="12">
-        <v>300000</v>
+        <v>4706</v>
       </c>
       <c r="BP5" s="12">
-        <v>300000</v>
+        <v>717</v>
       </c>
       <c r="BQ5" s="12">
-        <v>300000</v>
+        <v>832</v>
       </c>
       <c r="BR5" s="12">
-        <v>300000</v>
+        <v>67</v>
       </c>
       <c r="BS5" s="12">
-        <v>300000</v>
+        <v>46</v>
       </c>
       <c r="BT5" s="12">
-        <v>300000</v>
+        <v>171</v>
       </c>
       <c r="BU5" s="12">
-        <v>300000</v>
+        <v>1045</v>
       </c>
       <c r="BV5" s="12">
-        <v>300000</v>
+        <v>15634</v>
       </c>
       <c r="BW5" s="12">
-        <v>300000</v>
+        <v>3435</v>
       </c>
       <c r="BX5" s="12">
-        <v>300000</v>
+        <v>2501</v>
       </c>
       <c r="BY5" s="12">
         <v>300000</v>
       </c>
       <c r="BZ5" s="12">
-        <v>300000</v>
+        <v>255</v>
       </c>
       <c r="CA5" s="12">
-        <v>300000</v>
+        <v>804</v>
       </c>
       <c r="CB5" s="12">
         <v>300000</v>
       </c>
       <c r="CC5" s="12">
-        <v>300000</v>
+        <v>112</v>
       </c>
       <c r="CD5" s="12">
-        <v>300000</v>
+        <v>139</v>
       </c>
       <c r="CE5" s="12">
-        <v>56001</v>
+        <v>300000</v>
       </c>
       <c r="CF5" s="12">
-        <v>300000</v>
+        <v>128</v>
       </c>
       <c r="CG5" s="12">
         <v>300000</v>
       </c>
       <c r="CH5" s="12">
-        <v>300000</v>
+        <v>30</v>
       </c>
       <c r="CI5" s="12">
-        <v>300000</v>
+        <v>215</v>
       </c>
       <c r="CJ5" s="12">
-        <v>300000</v>
+        <v>227</v>
       </c>
       <c r="CK5" s="12">
-        <v>300000</v>
+        <v>147</v>
       </c>
       <c r="CL5" s="12">
-        <v>300000</v>
+        <v>21800</v>
       </c>
       <c r="CM5" s="12">
-        <v>266</v>
+        <v>478</v>
       </c>
       <c r="CN5" s="12">
         <v>300000</v>
       </c>
       <c r="CO5" s="12">
-        <v>300000</v>
+        <v>215</v>
       </c>
       <c r="CP5" s="12">
-        <v>300000</v>
+        <v>8446</v>
       </c>
       <c r="CQ5" s="12">
-        <v>300000</v>
+        <v>60</v>
       </c>
       <c r="CR5" s="12">
-        <v>300000</v>
+        <v>6227</v>
       </c>
       <c r="CS5" s="12">
-        <v>300000</v>
+        <v>28215</v>
       </c>
       <c r="CT5" s="12">
-        <v>300000</v>
+        <v>19161</v>
       </c>
       <c r="CU5" s="12">
-        <v>300000</v>
+        <v>1013</v>
       </c>
       <c r="CV5" s="12">
-        <v>300000</v>
+        <v>2678</v>
       </c>
       <c r="CW5" s="12">
-        <v>300000</v>
+        <v>57</v>
       </c>
       <c r="CX5" s="12">
-        <v>300000</v>
+        <v>81</v>
       </c>
       <c r="CY5" s="12">
-        <v>300000</v>
+        <v>175</v>
       </c>
       <c r="CZ5" s="12">
-        <v>300000</v>
+        <v>77946</v>
       </c>
       <c r="DA5" s="12">
-        <v>300000</v>
+        <v>10324</v>
       </c>
       <c r="DB5" s="12">
-        <v>300000</v>
+        <v>82</v>
       </c>
       <c r="DC5" s="12">
-        <v>300000</v>
+        <v>209</v>
       </c>
       <c r="DD5" s="12">
-        <v>300000</v>
+        <v>1047</v>
       </c>
       <c r="DE5" s="12">
+        <v>71</v>
+      </c>
+      <c r="DF5" s="12">
+        <v>22889</v>
+      </c>
+      <c r="DG5" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DH5" s="12">
+        <v>686</v>
+      </c>
+      <c r="DI5" s="12">
+        <v>65</v>
+      </c>
+      <c r="DJ5" s="12">
+        <v>87</v>
+      </c>
+      <c r="DK5" s="12">
+        <v>54</v>
+      </c>
+      <c r="DL5" s="12">
+        <v>668</v>
+      </c>
+      <c r="DM5" s="12">
+        <v>263</v>
+      </c>
+      <c r="DN5" s="12">
+        <v>11980</v>
+      </c>
+      <c r="DO5" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DP5" s="12">
+        <v>4302</v>
+      </c>
+      <c r="DQ5" s="12">
+        <v>630</v>
+      </c>
+      <c r="DR5" s="12">
+        <v>499</v>
+      </c>
+      <c r="DS5" s="12">
+        <v>141</v>
+      </c>
+      <c r="DT5" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DU5" s="12">
+        <v>13471</v>
+      </c>
+      <c r="DV5" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DW5" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DX5" s="12">
+        <v>30487</v>
+      </c>
+      <c r="DY5" s="12">
+        <v>20412</v>
+      </c>
+      <c r="DZ5" s="12">
+        <v>300000</v>
+      </c>
+      <c r="EA5" s="12">
+        <v>53748</v>
+      </c>
+      <c r="EB5" s="12">
+        <v>61633</v>
+      </c>
+      <c r="EC5" s="12">
+        <v>300000</v>
+      </c>
+      <c r="ED5" s="12">
+        <v>300000</v>
+      </c>
+      <c r="EE5" s="12">
+        <v>1151</v>
+      </c>
+      <c r="EF5" s="12">
+        <v>29</v>
+      </c>
+      <c r="EG5" s="12">
+        <v>300000</v>
+      </c>
+      <c r="EH5" s="12">
+        <v>52</v>
+      </c>
+      <c r="EI5" s="12">
+        <v>57867</v>
+      </c>
+      <c r="EJ5" s="12">
+        <v>300000</v>
+      </c>
+      <c r="EK5" s="12">
+        <v>105590</v>
+      </c>
+      <c r="EL5" s="12">
+        <v>132956</v>
+      </c>
+      <c r="EM5" s="12">
+        <v>300000</v>
+      </c>
+      <c r="EN5" s="12">
+        <v>300000</v>
+      </c>
+      <c r="EO5" s="12">
+        <v>11265</v>
+      </c>
+      <c r="EP5" s="12">
+        <v>3197</v>
+      </c>
+      <c r="EQ5" s="12">
+        <v>300000</v>
+      </c>
+      <c r="ES5" s="10">
+        <f>COUNTIF(B5:EQ5,"&gt;299999")</f>
         <v>26</v>
       </c>
-      <c r="DF5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DG5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DH5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DI5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DJ5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DK5" s="12">
-        <v>28</v>
-      </c>
-      <c r="DL5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DM5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DN5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DO5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DP5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DQ5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DR5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DS5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DT5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DU5" s="12">
-        <v>2225</v>
-      </c>
-      <c r="DV5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DW5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DX5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DY5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DZ5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="EA5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="EB5" s="12">
-        <v>7174</v>
-      </c>
-      <c r="EC5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="ED5" s="12">
-        <v>133</v>
-      </c>
-      <c r="EE5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="EF5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="EG5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="EH5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="EI5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="EJ5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="EK5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="EL5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="EM5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="EN5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="EO5" s="12">
-        <v>5255</v>
-      </c>
-      <c r="EP5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="EQ5" s="12">
-        <v>300000</v>
-      </c>
-      <c r="ES5" s="10">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
       <c r="ET5" s="11">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f>MIN(B5:EQ5)</f>
+        <v>29</v>
       </c>
       <c r="EU5" s="11">
-        <f t="shared" si="2"/>
-        <v>300000</v>
+        <f>_xlfn.PERCENTILE.EXC(B5:EQ5,0.25)</f>
+        <v>213.5</v>
       </c>
       <c r="EV5" s="11">
-        <f t="shared" si="3"/>
-        <v>300000</v>
+        <f>MEDIAN(B5:EQ5)</f>
+        <v>1253</v>
       </c>
       <c r="EW5" s="11">
-        <f t="shared" si="4"/>
-        <v>272214.80821917806</v>
+        <f>AVERAGE(B5:EQ5)</f>
+        <v>61687.205479452052</v>
       </c>
       <c r="EX5" s="11">
-        <f t="shared" si="5"/>
-        <v>300000</v>
+        <f>_xlfn.PERCENTILE.EXC(B5:EQ5,0.75)</f>
+        <v>36109.5</v>
       </c>
       <c r="EY5" s="11">
-        <f t="shared" si="6"/>
+        <f>MAX(B5:EQ5)</f>
         <v>300000</v>
       </c>
     </row>
@@ -14041,142 +14041,142 @@
         <v>300000</v>
       </c>
       <c r="ES6" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="ES6" si="0">COUNTIF(B6:EQ6,"&gt;299999")</f>
         <v>132</v>
       </c>
       <c r="ET6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="ET6" si="1">MIN(B6:EQ6)</f>
         <v>27</v>
       </c>
       <c r="EU6" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="EU6" si="2">_xlfn.PERCENTILE.EXC(B6:EQ6,0.25)</f>
         <v>300000</v>
       </c>
       <c r="EV6" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="EV6" si="3">MEDIAN(B6:EQ6)</f>
         <v>300000</v>
       </c>
       <c r="EW6" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="EW6" si="4">AVERAGE(B6:EQ6)</f>
         <v>272322.54794520547</v>
       </c>
       <c r="EX6" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="EX6" si="5">_xlfn.PERCENTILE.EXC(B6:EQ6,0.75)</f>
         <v>300000</v>
       </c>
       <c r="EY6" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="EY6" si="6">MAX(B6:EQ6)</f>
         <v>300000</v>
       </c>
     </row>
     <row r="7" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="12">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="12">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="12">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7" s="12">
-        <v>399</v>
+        <v>1043</v>
       </c>
       <c r="G7" s="12">
-        <v>53637</v>
+        <v>61744</v>
       </c>
       <c r="H7" s="12">
+        <v>242</v>
+      </c>
+      <c r="I7" s="12">
+        <v>204</v>
+      </c>
+      <c r="J7" s="12">
+        <v>308</v>
+      </c>
+      <c r="K7" s="12">
+        <v>450</v>
+      </c>
+      <c r="L7" s="12">
+        <v>173</v>
+      </c>
+      <c r="M7" s="12">
+        <v>1384</v>
+      </c>
+      <c r="N7" s="12">
+        <v>817</v>
+      </c>
+      <c r="O7" s="12">
+        <v>549</v>
+      </c>
+      <c r="P7" s="12">
+        <v>1567</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>74578</v>
+      </c>
+      <c r="R7" s="12">
+        <v>3731</v>
+      </c>
+      <c r="S7" s="12">
+        <v>1550</v>
+      </c>
+      <c r="T7" s="12">
+        <v>300000</v>
+      </c>
+      <c r="U7" s="12">
+        <v>4673</v>
+      </c>
+      <c r="V7" s="12">
+        <v>2708</v>
+      </c>
+      <c r="W7" s="12">
+        <v>55</v>
+      </c>
+      <c r="X7" s="12">
         <v>299</v>
       </c>
-      <c r="I7" s="12">
-        <v>180</v>
-      </c>
-      <c r="J7" s="12">
-        <v>341</v>
-      </c>
-      <c r="K7" s="12">
-        <v>478</v>
-      </c>
-      <c r="L7" s="12">
-        <v>163</v>
-      </c>
-      <c r="M7" s="12">
-        <v>1047</v>
-      </c>
-      <c r="N7" s="12">
-        <v>820</v>
-      </c>
-      <c r="O7" s="12">
-        <v>483</v>
-      </c>
-      <c r="P7" s="12">
-        <v>1345</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>65585</v>
-      </c>
-      <c r="R7" s="12">
-        <v>3593</v>
-      </c>
-      <c r="S7" s="12">
-        <v>1506</v>
-      </c>
-      <c r="T7" s="12">
-        <v>300000</v>
-      </c>
-      <c r="U7" s="12">
-        <v>3813</v>
-      </c>
-      <c r="V7" s="12">
-        <v>3191</v>
-      </c>
-      <c r="W7" s="12">
-        <v>58</v>
-      </c>
-      <c r="X7" s="12">
-        <v>266</v>
-      </c>
       <c r="Y7" s="12">
-        <v>1402</v>
+        <v>992</v>
       </c>
       <c r="Z7" s="12">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="AA7" s="12">
-        <v>1233</v>
+        <v>1286</v>
       </c>
       <c r="AB7" s="12">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AC7" s="12">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="AD7" s="12">
-        <v>646</v>
+        <v>736</v>
       </c>
       <c r="AE7" s="12">
-        <v>18768</v>
+        <v>15109</v>
       </c>
       <c r="AF7" s="12">
         <v>300000</v>
       </c>
       <c r="AG7" s="12">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AH7" s="12">
-        <v>25830</v>
+        <v>26311</v>
       </c>
       <c r="AI7" s="12">
-        <v>7754</v>
+        <v>6677</v>
       </c>
       <c r="AJ7" s="12">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AK7" s="12">
         <v>300000</v>
@@ -14188,262 +14188,262 @@
         <v>300000</v>
       </c>
       <c r="AN7" s="12">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="AO7" s="12">
-        <v>2250</v>
+        <v>2555</v>
       </c>
       <c r="AP7" s="12">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="AQ7" s="12">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="AR7" s="12">
-        <v>538</v>
+        <v>567</v>
       </c>
       <c r="AS7" s="12">
-        <v>802</v>
+        <v>739</v>
       </c>
       <c r="AT7" s="12">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AU7" s="12">
-        <v>4326</v>
+        <v>3975</v>
       </c>
       <c r="AV7" s="12">
-        <v>52977</v>
+        <v>72607</v>
       </c>
       <c r="AW7" s="12">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="AX7" s="12">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AY7" s="12">
-        <v>12993</v>
+        <v>13915</v>
       </c>
       <c r="AZ7" s="12">
         <v>300000</v>
       </c>
       <c r="BA7" s="12">
-        <v>13174</v>
+        <v>12105</v>
       </c>
       <c r="BB7" s="12">
-        <v>752</v>
+        <v>654</v>
       </c>
       <c r="BC7" s="12">
-        <v>154748</v>
+        <v>137489</v>
       </c>
       <c r="BD7" s="12">
-        <v>4624</v>
+        <v>3727</v>
       </c>
       <c r="BE7" s="12">
-        <v>1273</v>
+        <v>1164</v>
       </c>
       <c r="BF7" s="12">
         <v>300000</v>
       </c>
       <c r="BG7" s="12">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="BH7" s="12">
-        <v>8475</v>
+        <v>8387</v>
       </c>
       <c r="BI7" s="12">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BJ7" s="12">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BK7" s="12">
-        <v>7826</v>
+        <v>6572</v>
       </c>
       <c r="BL7" s="12">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="BM7" s="12">
-        <v>1292</v>
+        <v>999</v>
       </c>
       <c r="BN7" s="12">
         <v>300000</v>
       </c>
       <c r="BO7" s="12">
-        <v>4706</v>
+        <v>3743</v>
       </c>
       <c r="BP7" s="12">
-        <v>717</v>
+        <v>740</v>
       </c>
       <c r="BQ7" s="12">
-        <v>832</v>
+        <v>754</v>
       </c>
       <c r="BR7" s="12">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BS7" s="12">
         <v>46</v>
       </c>
       <c r="BT7" s="12">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="BU7" s="12">
-        <v>1045</v>
+        <v>1392</v>
       </c>
       <c r="BV7" s="12">
-        <v>15634</v>
+        <v>13233</v>
       </c>
       <c r="BW7" s="12">
-        <v>3435</v>
+        <v>2913</v>
       </c>
       <c r="BX7" s="12">
-        <v>2501</v>
+        <v>1907</v>
       </c>
       <c r="BY7" s="12">
         <v>300000</v>
       </c>
       <c r="BZ7" s="12">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="CA7" s="12">
-        <v>804</v>
+        <v>641</v>
       </c>
       <c r="CB7" s="12">
         <v>300000</v>
       </c>
       <c r="CC7" s="12">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="CD7" s="12">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CE7" s="12">
         <v>300000</v>
       </c>
       <c r="CF7" s="12">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CG7" s="12">
         <v>300000</v>
       </c>
       <c r="CH7" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CI7" s="12">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="CJ7" s="12">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="CK7" s="12">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="CL7" s="12">
-        <v>21800</v>
+        <v>20386</v>
       </c>
       <c r="CM7" s="12">
-        <v>478</v>
+        <v>411</v>
       </c>
       <c r="CN7" s="12">
         <v>300000</v>
       </c>
       <c r="CO7" s="12">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="CP7" s="12">
-        <v>8446</v>
+        <v>7508</v>
       </c>
       <c r="CQ7" s="12">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CR7" s="12">
-        <v>6227</v>
+        <v>5732</v>
       </c>
       <c r="CS7" s="12">
-        <v>28215</v>
+        <v>24630</v>
       </c>
       <c r="CT7" s="12">
-        <v>19161</v>
+        <v>17767</v>
       </c>
       <c r="CU7" s="12">
-        <v>1013</v>
+        <v>1043</v>
       </c>
       <c r="CV7" s="12">
-        <v>2678</v>
+        <v>2475</v>
       </c>
       <c r="CW7" s="12">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="CX7" s="12">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="CY7" s="12">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="CZ7" s="12">
-        <v>77946</v>
+        <v>76016</v>
       </c>
       <c r="DA7" s="12">
-        <v>10324</v>
+        <v>9909</v>
       </c>
       <c r="DB7" s="12">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="DC7" s="12">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="DD7" s="12">
-        <v>1047</v>
+        <v>1009</v>
       </c>
       <c r="DE7" s="12">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="DF7" s="12">
-        <v>22889</v>
+        <v>20313</v>
       </c>
       <c r="DG7" s="12">
         <v>300000</v>
       </c>
       <c r="DH7" s="12">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="DI7" s="12">
         <v>65</v>
       </c>
       <c r="DJ7" s="12">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="DK7" s="12">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="DL7" s="12">
-        <v>668</v>
+        <v>615</v>
       </c>
       <c r="DM7" s="12">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="DN7" s="12">
-        <v>11980</v>
+        <v>11642</v>
       </c>
       <c r="DO7" s="12">
         <v>300000</v>
       </c>
       <c r="DP7" s="12">
-        <v>4302</v>
+        <v>4231</v>
       </c>
       <c r="DQ7" s="12">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="DR7" s="12">
-        <v>499</v>
+        <v>451</v>
       </c>
       <c r="DS7" s="12">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="DT7" s="12">
         <v>300000</v>
       </c>
       <c r="DU7" s="12">
-        <v>13471</v>
+        <v>11184</v>
       </c>
       <c r="DV7" s="12">
         <v>300000</v>
@@ -14452,19 +14452,19 @@
         <v>300000</v>
       </c>
       <c r="DX7" s="12">
-        <v>30487</v>
+        <v>27836</v>
       </c>
       <c r="DY7" s="12">
-        <v>20412</v>
+        <v>27856</v>
       </c>
       <c r="DZ7" s="12">
         <v>300000</v>
       </c>
       <c r="EA7" s="12">
-        <v>53748</v>
+        <v>52146</v>
       </c>
       <c r="EB7" s="12">
-        <v>61633</v>
+        <v>58222</v>
       </c>
       <c r="EC7" s="12">
         <v>300000</v>
@@ -14473,28 +14473,28 @@
         <v>300000</v>
       </c>
       <c r="EE7" s="12">
-        <v>1151</v>
+        <v>1569</v>
       </c>
       <c r="EF7" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="EG7" s="12">
         <v>300000</v>
       </c>
       <c r="EH7" s="12">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="EI7" s="12">
-        <v>57867</v>
+        <v>39594</v>
       </c>
       <c r="EJ7" s="12">
         <v>300000</v>
       </c>
       <c r="EK7" s="12">
-        <v>105590</v>
+        <v>103564</v>
       </c>
       <c r="EL7" s="12">
-        <v>132956</v>
+        <v>112864</v>
       </c>
       <c r="EM7" s="12">
         <v>300000</v>
@@ -14503,151 +14503,151 @@
         <v>300000</v>
       </c>
       <c r="EO7" s="12">
-        <v>11265</v>
+        <v>9371</v>
       </c>
       <c r="EP7" s="12">
-        <v>3197</v>
+        <v>2689</v>
       </c>
       <c r="EQ7" s="12">
         <v>300000</v>
       </c>
       <c r="ES7" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B7:EQ7,"&gt;299999")</f>
         <v>26</v>
       </c>
       <c r="ET7" s="11">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f>MIN(B7:EQ7)</f>
+        <v>30</v>
       </c>
       <c r="EU7" s="11">
-        <f t="shared" si="2"/>
-        <v>213.5</v>
+        <f>_xlfn.PERCENTILE.EXC(B7:EQ7,0.25)</f>
+        <v>197.5</v>
       </c>
       <c r="EV7" s="11">
-        <f t="shared" si="3"/>
-        <v>1253</v>
+        <f>MEDIAN(B7:EQ7)</f>
+        <v>1335</v>
       </c>
       <c r="EW7" s="11">
-        <f t="shared" si="4"/>
-        <v>61687.205479452052</v>
+        <f>AVERAGE(B7:EQ7)</f>
+        <v>61351.554794520547</v>
       </c>
       <c r="EX7" s="11">
-        <f t="shared" si="5"/>
-        <v>36109.5</v>
+        <f>_xlfn.PERCENTILE.EXC(B7:EQ7,0.75)</f>
+        <v>30790.5</v>
       </c>
       <c r="EY7" s="11">
-        <f t="shared" si="6"/>
+        <f>MAX(B7:EQ7)</f>
         <v>300000</v>
       </c>
     </row>
     <row r="8" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1599</v>
+      </c>
+      <c r="C8" s="12">
+        <v>213</v>
+      </c>
+      <c r="D8" s="12">
+        <v>11</v>
+      </c>
+      <c r="E8" s="12">
+        <v>47</v>
+      </c>
+      <c r="F8" s="12">
+        <v>4408</v>
+      </c>
+      <c r="G8" s="12">
+        <v>10991</v>
+      </c>
+      <c r="H8" s="12">
+        <v>38</v>
+      </c>
+      <c r="I8" s="12">
+        <v>35</v>
+      </c>
+      <c r="J8" s="12">
+        <v>36</v>
+      </c>
+      <c r="K8" s="12">
+        <v>219</v>
+      </c>
+      <c r="L8" s="12">
+        <v>11</v>
+      </c>
+      <c r="M8" s="12">
+        <v>119</v>
+      </c>
+      <c r="N8" s="12">
+        <v>14512</v>
+      </c>
+      <c r="O8" s="12">
+        <v>192</v>
+      </c>
+      <c r="P8" s="12">
+        <v>300000</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>300000</v>
+      </c>
+      <c r="R8" s="12">
+        <v>3267</v>
+      </c>
+      <c r="S8" s="12">
+        <v>563</v>
+      </c>
+      <c r="T8" s="12">
+        <v>408</v>
+      </c>
+      <c r="U8" s="12">
+        <v>8661</v>
+      </c>
+      <c r="V8" s="12">
+        <v>1508</v>
+      </c>
+      <c r="W8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="12">
-        <v>60</v>
-      </c>
-      <c r="C8" s="12">
-        <v>32</v>
-      </c>
-      <c r="D8" s="12">
-        <v>66</v>
-      </c>
-      <c r="E8" s="12">
-        <v>124</v>
-      </c>
-      <c r="F8" s="12">
-        <v>1043</v>
-      </c>
-      <c r="G8" s="12">
-        <v>61744</v>
-      </c>
-      <c r="H8" s="12">
-        <v>242</v>
-      </c>
-      <c r="I8" s="12">
-        <v>204</v>
-      </c>
-      <c r="J8" s="12">
-        <v>308</v>
-      </c>
-      <c r="K8" s="12">
-        <v>450</v>
-      </c>
-      <c r="L8" s="12">
-        <v>173</v>
-      </c>
-      <c r="M8" s="12">
-        <v>1384</v>
-      </c>
-      <c r="N8" s="12">
-        <v>817</v>
-      </c>
-      <c r="O8" s="12">
-        <v>549</v>
-      </c>
-      <c r="P8" s="12">
-        <v>1567</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>74578</v>
-      </c>
-      <c r="R8" s="12">
-        <v>3731</v>
-      </c>
-      <c r="S8" s="12">
-        <v>1550</v>
-      </c>
-      <c r="T8" s="12">
-        <v>300000</v>
-      </c>
-      <c r="U8" s="12">
-        <v>4673</v>
-      </c>
-      <c r="V8" s="12">
-        <v>2708</v>
-      </c>
-      <c r="W8" s="12">
-        <v>55</v>
-      </c>
       <c r="X8" s="12">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="Y8" s="12">
-        <v>992</v>
+        <v>372</v>
       </c>
       <c r="Z8" s="12">
-        <v>356</v>
+        <v>3115</v>
       </c>
       <c r="AA8" s="12">
-        <v>1286</v>
+        <v>1171</v>
       </c>
       <c r="AB8" s="12">
-        <v>219</v>
+        <v>56</v>
       </c>
       <c r="AC8" s="12">
-        <v>464</v>
+        <v>99</v>
       </c>
       <c r="AD8" s="12">
-        <v>736</v>
+        <v>51</v>
       </c>
       <c r="AE8" s="12">
-        <v>15109</v>
+        <v>3721</v>
       </c>
       <c r="AF8" s="12">
-        <v>300000</v>
+        <v>45</v>
       </c>
       <c r="AG8" s="12">
-        <v>136</v>
+        <v>300000</v>
       </c>
       <c r="AH8" s="12">
-        <v>26311</v>
+        <v>10541</v>
       </c>
       <c r="AI8" s="12">
-        <v>6677</v>
+        <v>192</v>
       </c>
       <c r="AJ8" s="12">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AK8" s="12">
         <v>300000</v>
@@ -14656,369 +14656,360 @@
         <v>300000</v>
       </c>
       <c r="AM8" s="12">
-        <v>300000</v>
+        <v>19351</v>
       </c>
       <c r="AN8" s="12">
-        <v>409</v>
+        <v>158</v>
       </c>
       <c r="AO8" s="12">
-        <v>2555</v>
+        <v>20853</v>
       </c>
       <c r="AP8" s="12">
-        <v>484</v>
+        <v>1440</v>
       </c>
       <c r="AQ8" s="12">
-        <v>541</v>
+        <v>20179</v>
       </c>
       <c r="AR8" s="12">
-        <v>567</v>
+        <v>20120</v>
       </c>
       <c r="AS8" s="12">
-        <v>739</v>
+        <v>23</v>
       </c>
       <c r="AT8" s="12">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="AU8" s="12">
-        <v>3975</v>
+        <v>18</v>
       </c>
       <c r="AV8" s="12">
-        <v>72607</v>
+        <v>3090</v>
       </c>
       <c r="AW8" s="12">
+        <v>205</v>
+      </c>
+      <c r="AX8" s="12">
+        <v>28586</v>
+      </c>
+      <c r="AY8" s="12">
+        <v>7824</v>
+      </c>
+      <c r="AZ8" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BA8" s="12">
+        <v>5118</v>
+      </c>
+      <c r="BB8" s="12">
+        <v>144</v>
+      </c>
+      <c r="BC8" s="12">
+        <v>18245</v>
+      </c>
+      <c r="BD8" s="12">
+        <v>5597</v>
+      </c>
+      <c r="BE8" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BF8" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BG8" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BH8" s="12">
+        <v>5589</v>
+      </c>
+      <c r="BI8" s="12">
+        <v>37</v>
+      </c>
+      <c r="BJ8" s="12">
+        <v>8</v>
+      </c>
+      <c r="BK8" s="12">
+        <v>4205</v>
+      </c>
+      <c r="BL8" s="12">
+        <v>17</v>
+      </c>
+      <c r="BM8" s="12">
+        <v>840</v>
+      </c>
+      <c r="BN8" s="12">
+        <v>58157</v>
+      </c>
+      <c r="BO8" s="12">
+        <v>1472</v>
+      </c>
+      <c r="BP8" s="12">
+        <v>306</v>
+      </c>
+      <c r="BQ8" s="12">
+        <v>178</v>
+      </c>
+      <c r="BR8" s="12">
+        <v>12</v>
+      </c>
+      <c r="BS8" s="12">
+        <v>5</v>
+      </c>
+      <c r="BT8" s="12">
+        <v>14</v>
+      </c>
+      <c r="BU8" s="12">
+        <v>24</v>
+      </c>
+      <c r="BV8" s="12">
+        <v>1542</v>
+      </c>
+      <c r="BW8" s="12">
+        <v>296</v>
+      </c>
+      <c r="BX8" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BY8" s="12">
+        <v>5796</v>
+      </c>
+      <c r="BZ8" s="12">
+        <v>139</v>
+      </c>
+      <c r="CA8" s="12">
+        <v>759</v>
+      </c>
+      <c r="CB8" s="12">
+        <v>55218</v>
+      </c>
+      <c r="CC8" s="12">
+        <v>13</v>
+      </c>
+      <c r="CD8" s="12">
+        <v>17</v>
+      </c>
+      <c r="CE8" s="12">
+        <v>52697</v>
+      </c>
+      <c r="CF8" s="12">
+        <v>18</v>
+      </c>
+      <c r="CG8" s="12">
+        <v>40216</v>
+      </c>
+      <c r="CH8" s="12">
+        <v>4</v>
+      </c>
+      <c r="CI8" s="12">
+        <v>47</v>
+      </c>
+      <c r="CJ8" s="12">
+        <v>50</v>
+      </c>
+      <c r="CK8" s="12">
+        <v>334</v>
+      </c>
+      <c r="CL8" s="12">
         <v>157</v>
       </c>
-      <c r="AX8" s="12">
-        <v>52</v>
-      </c>
-      <c r="AY8" s="12">
-        <v>13915</v>
-      </c>
-      <c r="AZ8" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BA8" s="12">
-        <v>12105</v>
-      </c>
-      <c r="BB8" s="12">
-        <v>654</v>
-      </c>
-      <c r="BC8" s="12">
-        <v>137489</v>
-      </c>
-      <c r="BD8" s="12">
-        <v>3727</v>
-      </c>
-      <c r="BE8" s="12">
-        <v>1164</v>
-      </c>
-      <c r="BF8" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BG8" s="12">
-        <v>295</v>
-      </c>
-      <c r="BH8" s="12">
-        <v>8387</v>
-      </c>
-      <c r="BI8" s="12">
-        <v>93</v>
-      </c>
-      <c r="BJ8" s="12">
-        <v>111</v>
-      </c>
-      <c r="BK8" s="12">
-        <v>6572</v>
-      </c>
-      <c r="BL8" s="12">
-        <v>113</v>
-      </c>
-      <c r="BM8" s="12">
-        <v>999</v>
-      </c>
-      <c r="BN8" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BO8" s="12">
-        <v>3743</v>
-      </c>
-      <c r="BP8" s="12">
-        <v>740</v>
-      </c>
-      <c r="BQ8" s="12">
-        <v>754</v>
-      </c>
-      <c r="BR8" s="12">
-        <v>68</v>
-      </c>
-      <c r="BS8" s="12">
+      <c r="CM8" s="12">
+        <v>97</v>
+      </c>
+      <c r="CN8" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CO8" s="12">
         <v>46</v>
       </c>
-      <c r="BT8" s="12">
-        <v>153</v>
-      </c>
-      <c r="BU8" s="12">
-        <v>1392</v>
-      </c>
-      <c r="BV8" s="12">
-        <v>13233</v>
-      </c>
-      <c r="BW8" s="12">
-        <v>2913</v>
-      </c>
-      <c r="BX8" s="12">
-        <v>1907</v>
-      </c>
-      <c r="BY8" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BZ8" s="12">
-        <v>265</v>
-      </c>
-      <c r="CA8" s="12">
-        <v>641</v>
-      </c>
-      <c r="CB8" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CC8" s="12">
-        <v>113</v>
-      </c>
-      <c r="CD8" s="12">
-        <v>138</v>
-      </c>
-      <c r="CE8" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CF8" s="12">
-        <v>129</v>
-      </c>
-      <c r="CG8" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CH8" s="12">
+      <c r="CP8" s="12">
+        <v>5470</v>
+      </c>
+      <c r="CQ8" s="12">
+        <v>7</v>
+      </c>
+      <c r="CR8" s="12">
+        <v>847</v>
+      </c>
+      <c r="CS8" s="12">
+        <v>92</v>
+      </c>
+      <c r="CT8" s="12">
+        <v>257</v>
+      </c>
+      <c r="CU8" s="12">
+        <v>80</v>
+      </c>
+      <c r="CV8" s="12">
+        <v>33142</v>
+      </c>
+      <c r="CW8" s="12">
+        <v>20</v>
+      </c>
+      <c r="CX8" s="12">
+        <v>1018</v>
+      </c>
+      <c r="CY8" s="12">
+        <v>27</v>
+      </c>
+      <c r="CZ8" s="12">
+        <v>21718</v>
+      </c>
+      <c r="DA8" s="12">
+        <v>1734</v>
+      </c>
+      <c r="DB8" s="12">
+        <v>11</v>
+      </c>
+      <c r="DC8" s="12">
         <v>31</v>
       </c>
-      <c r="CI8" s="12">
-        <v>189</v>
-      </c>
-      <c r="CJ8" s="12">
-        <v>198</v>
-      </c>
-      <c r="CK8" s="12">
-        <v>149</v>
-      </c>
-      <c r="CL8" s="12">
-        <v>20386</v>
-      </c>
-      <c r="CM8" s="12">
-        <v>411</v>
-      </c>
-      <c r="CN8" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CO8" s="12">
-        <v>196</v>
-      </c>
-      <c r="CP8" s="12">
-        <v>7508</v>
-      </c>
-      <c r="CQ8" s="12">
-        <v>61</v>
-      </c>
-      <c r="CR8" s="12">
-        <v>5732</v>
-      </c>
-      <c r="CS8" s="12">
-        <v>24630</v>
-      </c>
-      <c r="CT8" s="12">
-        <v>17767</v>
-      </c>
-      <c r="CU8" s="12">
-        <v>1043</v>
-      </c>
-      <c r="CV8" s="12">
-        <v>2475</v>
-      </c>
-      <c r="CW8" s="12">
-        <v>59</v>
-      </c>
-      <c r="CX8" s="12">
-        <v>87</v>
-      </c>
-      <c r="CY8" s="12">
-        <v>191</v>
-      </c>
-      <c r="CZ8" s="12">
-        <v>76016</v>
-      </c>
-      <c r="DA8" s="12">
-        <v>9909</v>
-      </c>
-      <c r="DB8" s="12">
-        <v>80</v>
-      </c>
-      <c r="DC8" s="12">
-        <v>185</v>
-      </c>
       <c r="DD8" s="12">
-        <v>1009</v>
+        <v>300000</v>
       </c>
       <c r="DE8" s="12">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="DF8" s="12">
-        <v>20313</v>
+        <v>19</v>
       </c>
       <c r="DG8" s="12">
         <v>300000</v>
       </c>
       <c r="DH8" s="12">
-        <v>668</v>
+        <v>46</v>
       </c>
       <c r="DI8" s="12">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="DJ8" s="12">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="DK8" s="12">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="DL8" s="12">
-        <v>615</v>
+        <v>288</v>
       </c>
       <c r="DM8" s="12">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="DN8" s="12">
-        <v>11642</v>
+        <v>300000</v>
       </c>
       <c r="DO8" s="12">
-        <v>300000</v>
+        <v>2600</v>
       </c>
       <c r="DP8" s="12">
-        <v>4231</v>
+        <v>1993</v>
       </c>
       <c r="DQ8" s="12">
-        <v>644</v>
+        <v>838</v>
       </c>
       <c r="DR8" s="12">
-        <v>451</v>
+        <v>82</v>
       </c>
       <c r="DS8" s="12">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="DT8" s="12">
         <v>300000</v>
       </c>
       <c r="DU8" s="12">
-        <v>11184</v>
+        <v>171</v>
       </c>
       <c r="DV8" s="12">
         <v>300000</v>
       </c>
       <c r="DW8" s="12">
-        <v>300000</v>
+        <v>20</v>
       </c>
       <c r="DX8" s="12">
-        <v>27836</v>
+        <v>300000</v>
       </c>
       <c r="DY8" s="12">
-        <v>27856</v>
+        <v>400</v>
       </c>
       <c r="DZ8" s="12">
-        <v>300000</v>
+        <v>21</v>
       </c>
       <c r="EA8" s="12">
-        <v>52146</v>
+        <v>241</v>
       </c>
       <c r="EB8" s="12">
-        <v>58222</v>
+        <v>7220</v>
       </c>
       <c r="EC8" s="12">
-        <v>300000</v>
+        <v>216914</v>
       </c>
       <c r="ED8" s="12">
-        <v>300000</v>
+        <v>84</v>
       </c>
       <c r="EE8" s="12">
-        <v>1569</v>
+        <v>853</v>
       </c>
       <c r="EF8" s="12">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="EG8" s="12">
-        <v>300000</v>
+        <v>263156</v>
       </c>
       <c r="EH8" s="12">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="EI8" s="12">
-        <v>39594</v>
+        <v>18856</v>
       </c>
       <c r="EJ8" s="12">
         <v>300000</v>
       </c>
       <c r="EK8" s="12">
-        <v>103564</v>
+        <v>4989</v>
       </c>
       <c r="EL8" s="12">
-        <v>112864</v>
+        <v>5360</v>
       </c>
       <c r="EM8" s="12">
         <v>300000</v>
       </c>
       <c r="EN8" s="12">
-        <v>300000</v>
+        <v>65344</v>
       </c>
       <c r="EO8" s="12">
-        <v>9371</v>
+        <v>300000</v>
       </c>
       <c r="EP8" s="12">
-        <v>2689</v>
+        <v>737</v>
       </c>
       <c r="EQ8" s="12">
         <v>300000</v>
       </c>
       <c r="ES8" s="10">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f>COUNTIF(B8:EQ8,"&gt;299999")</f>
+        <v>21</v>
       </c>
       <c r="ET8" s="11">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>MIN(B8:EQ8)</f>
+        <v>3</v>
       </c>
       <c r="EU8" s="11">
-        <f t="shared" si="2"/>
-        <v>197.5</v>
+        <f>_xlfn.PERCENTILE.EXC(B8:EQ8,0.25)</f>
+        <v>37.75</v>
       </c>
       <c r="EV8" s="11">
-        <f t="shared" si="3"/>
-        <v>1335</v>
+        <f>MEDIAN(B8:EQ8)</f>
+        <v>485.5</v>
       </c>
       <c r="EW8" s="11">
-        <f t="shared" si="4"/>
-        <v>61351.554794520547</v>
+        <f>AVERAGE(B8:EQ8)</f>
+        <v>50687.719178082189</v>
       </c>
       <c r="EX8" s="11">
-        <f t="shared" si="5"/>
-        <v>30790.5</v>
+        <f>_xlfn.PERCENTILE.EXC(B8:EQ8,0.75)</f>
+        <v>18397.75</v>
       </c>
       <c r="EY8" s="11">
-        <f t="shared" si="6"/>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:155" x14ac:dyDescent="0.35">
-      <c r="ES9" s="10"/>
-      <c r="ET9" s="10"/>
-      <c r="EU9" s="10"/>
-      <c r="EV9" s="10"/>
-      <c r="EW9" s="10"/>
-      <c r="EX9" s="10"/>
-      <c r="EY9" s="10"/>
+        <f>MAX(B8:EQ8)</f>
+        <v>300000</v>
+      </c>
     </row>
     <row r="10" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -15925,142 +15916,142 @@
         <v>300000</v>
       </c>
       <c r="ES12" s="10">
-        <f t="shared" ref="ES12:ES17" si="7">COUNTIF(B12:EQ12,"&gt;299999")</f>
+        <f t="shared" ref="ES12" si="7">COUNTIF(B12:EQ12,"&gt;299999")</f>
         <v>17</v>
       </c>
       <c r="ET12" s="11">
-        <f t="shared" ref="ET12:ET17" si="8">MIN(B12:EQ12)</f>
+        <f t="shared" ref="ET12" si="8">MIN(B12:EQ12)</f>
         <v>3</v>
       </c>
       <c r="EU12" s="11">
-        <f t="shared" ref="EU12:EU17" si="9">_xlfn.PERCENTILE.EXC(B12:EQ12,0.25)</f>
+        <f t="shared" ref="EU12" si="9">_xlfn.PERCENTILE.EXC(B12:EQ12,0.25)</f>
         <v>91.5</v>
       </c>
       <c r="EV12" s="11">
-        <f t="shared" ref="EV12:EV17" si="10">MEDIAN(B12:EQ12)</f>
+        <f t="shared" ref="EV12" si="10">MEDIAN(B12:EQ12)</f>
         <v>658</v>
       </c>
       <c r="EW12" s="11">
-        <f t="shared" ref="EW12:EW17" si="11">AVERAGE(B12:EQ12)</f>
+        <f t="shared" ref="EW12" si="11">AVERAGE(B12:EQ12)</f>
         <v>40958.075342465752</v>
       </c>
       <c r="EX12" s="11">
-        <f t="shared" ref="EX12:EX17" si="12">_xlfn.PERCENTILE.EXC(B12:EQ12,0.75)</f>
+        <f t="shared" ref="EX12" si="12">_xlfn.PERCENTILE.EXC(B12:EQ12,0.75)</f>
         <v>5736.5</v>
       </c>
       <c r="EY12" s="11">
-        <f t="shared" ref="EY12:EY17" si="13">MAX(B12:EQ12)</f>
+        <f t="shared" ref="EY12" si="13">MAX(B12:EQ12)</f>
         <v>300000</v>
       </c>
     </row>
     <row r="13" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="12">
-        <v>24</v>
+        <v>300000</v>
       </c>
       <c r="C13" s="12">
-        <v>5</v>
+        <v>300000</v>
       </c>
       <c r="D13" s="12">
-        <v>12</v>
+        <v>300000</v>
       </c>
       <c r="E13" s="12">
-        <v>37</v>
+        <v>300000</v>
       </c>
       <c r="F13" s="12">
-        <v>678</v>
+        <v>300000</v>
       </c>
       <c r="G13" s="12">
-        <v>8759</v>
+        <v>300000</v>
       </c>
       <c r="H13" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I13" s="12">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="J13" s="12">
-        <v>32</v>
+        <v>300000</v>
       </c>
       <c r="K13" s="12">
-        <v>55</v>
+        <v>300000</v>
       </c>
       <c r="L13" s="12">
-        <v>12</v>
+        <v>300000</v>
       </c>
       <c r="M13" s="12">
-        <v>26</v>
+        <v>300000</v>
       </c>
       <c r="N13" s="12">
-        <v>20151</v>
+        <v>300000</v>
       </c>
       <c r="O13" s="12">
-        <v>229</v>
+        <v>300000</v>
       </c>
       <c r="P13" s="12">
-        <v>300000</v>
+        <v>65644</v>
       </c>
       <c r="Q13" s="12">
         <v>300000</v>
       </c>
       <c r="R13" s="12">
-        <v>1755</v>
+        <v>300000</v>
       </c>
       <c r="S13" s="12">
-        <v>5005</v>
+        <v>300000</v>
       </c>
       <c r="T13" s="12">
-        <v>448</v>
+        <v>300000</v>
       </c>
       <c r="U13" s="12">
-        <v>677</v>
+        <v>300000</v>
       </c>
       <c r="V13" s="12">
-        <v>1851</v>
+        <v>300000</v>
       </c>
       <c r="W13" s="12">
-        <v>8</v>
+        <v>300000</v>
       </c>
       <c r="X13" s="12">
-        <v>36</v>
+        <v>300000</v>
       </c>
       <c r="Y13" s="12">
-        <v>533</v>
+        <v>300000</v>
       </c>
       <c r="Z13" s="12">
-        <v>184</v>
+        <v>300000</v>
       </c>
       <c r="AA13" s="12">
-        <v>207</v>
+        <v>300000</v>
       </c>
       <c r="AB13" s="12">
-        <v>66</v>
+        <v>300000</v>
       </c>
       <c r="AC13" s="12">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AD13" s="12">
-        <v>56</v>
+        <v>300000</v>
       </c>
       <c r="AE13" s="12">
-        <v>3861</v>
+        <v>300000</v>
       </c>
       <c r="AF13" s="12">
-        <v>36</v>
+        <v>300000</v>
       </c>
       <c r="AG13" s="12">
         <v>300000</v>
       </c>
       <c r="AH13" s="12">
-        <v>11210</v>
+        <v>300000</v>
       </c>
       <c r="AI13" s="12">
-        <v>204</v>
+        <v>300000</v>
       </c>
       <c r="AJ13" s="12">
-        <v>11</v>
+        <v>300000</v>
       </c>
       <c r="AK13" s="12">
         <v>300000</v>
@@ -16069,61 +16060,61 @@
         <v>300000</v>
       </c>
       <c r="AM13" s="12">
-        <v>29205</v>
+        <v>300000</v>
       </c>
       <c r="AN13" s="12">
-        <v>162</v>
+        <v>300000</v>
       </c>
       <c r="AO13" s="12">
-        <v>65694</v>
+        <v>300000</v>
       </c>
       <c r="AP13" s="12">
-        <v>1226</v>
+        <v>300000</v>
       </c>
       <c r="AQ13" s="12">
-        <v>19546</v>
+        <v>300000</v>
       </c>
       <c r="AR13" s="12">
-        <v>19527</v>
+        <v>300000</v>
       </c>
       <c r="AS13" s="12">
-        <v>30</v>
+        <v>300000</v>
       </c>
       <c r="AT13" s="12">
-        <v>26</v>
+        <v>300000</v>
       </c>
       <c r="AU13" s="12">
-        <v>20</v>
+        <v>300000</v>
       </c>
       <c r="AV13" s="12">
-        <v>2752</v>
+        <v>300000</v>
       </c>
       <c r="AW13" s="12">
-        <v>86</v>
+        <v>300000</v>
       </c>
       <c r="AX13" s="12">
-        <v>12828</v>
+        <v>300000</v>
       </c>
       <c r="AY13" s="12">
-        <v>6527</v>
+        <v>300000</v>
       </c>
       <c r="AZ13" s="12">
         <v>300000</v>
       </c>
       <c r="BA13" s="12">
-        <v>5499</v>
+        <v>300000</v>
       </c>
       <c r="BB13" s="12">
-        <v>169</v>
+        <v>300000</v>
       </c>
       <c r="BC13" s="12">
-        <v>17668</v>
+        <v>300000</v>
       </c>
       <c r="BD13" s="12">
-        <v>5430</v>
+        <v>300000</v>
       </c>
       <c r="BE13" s="12">
-        <v>300000</v>
+        <v>7275</v>
       </c>
       <c r="BF13" s="12">
         <v>300000</v>
@@ -16132,406 +16123,406 @@
         <v>300000</v>
       </c>
       <c r="BH13" s="12">
-        <v>5275</v>
+        <v>300000</v>
       </c>
       <c r="BI13" s="12">
-        <v>23</v>
+        <v>300000</v>
       </c>
       <c r="BJ13" s="12">
-        <v>9</v>
+        <v>300000</v>
       </c>
       <c r="BK13" s="12">
-        <v>6207</v>
+        <v>300000</v>
       </c>
       <c r="BL13" s="12">
-        <v>28</v>
+        <v>300000</v>
       </c>
       <c r="BM13" s="12">
-        <v>1227</v>
+        <v>294</v>
       </c>
       <c r="BN13" s="12">
-        <v>87296</v>
+        <v>300000</v>
       </c>
       <c r="BO13" s="12">
-        <v>1979</v>
+        <v>300000</v>
       </c>
       <c r="BP13" s="12">
-        <v>372</v>
+        <v>300000</v>
       </c>
       <c r="BQ13" s="12">
-        <v>258</v>
+        <v>300000</v>
       </c>
       <c r="BR13" s="12">
-        <v>12</v>
+        <v>300000</v>
       </c>
       <c r="BS13" s="12">
-        <v>6</v>
+        <v>300000</v>
       </c>
       <c r="BT13" s="12">
-        <v>15</v>
+        <v>300000</v>
       </c>
       <c r="BU13" s="12">
-        <v>27</v>
+        <v>300000</v>
       </c>
       <c r="BV13" s="12">
-        <v>2152</v>
+        <v>300000</v>
       </c>
       <c r="BW13" s="12">
-        <v>342</v>
+        <v>300000</v>
       </c>
       <c r="BX13" s="12">
         <v>300000</v>
       </c>
       <c r="BY13" s="12">
-        <v>5818</v>
+        <v>300000</v>
       </c>
       <c r="BZ13" s="12">
-        <v>158</v>
+        <v>300000</v>
       </c>
       <c r="CA13" s="12">
-        <v>526</v>
+        <v>300000</v>
       </c>
       <c r="CB13" s="12">
-        <v>88870</v>
+        <v>300000</v>
       </c>
       <c r="CC13" s="12">
-        <v>13</v>
+        <v>300000</v>
       </c>
       <c r="CD13" s="12">
-        <v>23</v>
+        <v>300000</v>
       </c>
       <c r="CE13" s="12">
-        <v>101048</v>
+        <v>65527</v>
       </c>
       <c r="CF13" s="12">
-        <v>17</v>
+        <v>300000</v>
       </c>
       <c r="CG13" s="12">
-        <v>37781</v>
+        <v>300000</v>
       </c>
       <c r="CH13" s="12">
-        <v>5</v>
+        <v>300000</v>
       </c>
       <c r="CI13" s="12">
-        <v>96</v>
+        <v>300000</v>
       </c>
       <c r="CJ13" s="12">
-        <v>61</v>
+        <v>300000</v>
       </c>
       <c r="CK13" s="12">
-        <v>459</v>
+        <v>300000</v>
       </c>
       <c r="CL13" s="12">
-        <v>116</v>
+        <v>300000</v>
       </c>
       <c r="CM13" s="12">
-        <v>117</v>
+        <v>265</v>
       </c>
       <c r="CN13" s="12">
         <v>300000</v>
       </c>
       <c r="CO13" s="12">
-        <v>62</v>
+        <v>300000</v>
       </c>
       <c r="CP13" s="12">
-        <v>7258</v>
+        <v>300000</v>
       </c>
       <c r="CQ13" s="12">
-        <v>9</v>
+        <v>300000</v>
       </c>
       <c r="CR13" s="12">
-        <v>361</v>
+        <v>300000</v>
       </c>
       <c r="CS13" s="12">
-        <v>87</v>
+        <v>300000</v>
       </c>
       <c r="CT13" s="12">
-        <v>238</v>
+        <v>300000</v>
       </c>
       <c r="CU13" s="12">
-        <v>79</v>
+        <v>300000</v>
       </c>
       <c r="CV13" s="12">
-        <v>36442</v>
+        <v>300000</v>
       </c>
       <c r="CW13" s="12">
-        <v>17</v>
+        <v>300000</v>
       </c>
       <c r="CX13" s="12">
-        <v>1540</v>
+        <v>300000</v>
       </c>
       <c r="CY13" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CZ13" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DA13" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DB13" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DC13" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DD13" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DE13" s="12">
         <v>29</v>
       </c>
-      <c r="CZ13" s="12">
-        <v>23490</v>
-      </c>
-      <c r="DA13" s="12">
-        <v>2248</v>
-      </c>
-      <c r="DB13" s="12">
-        <v>8</v>
-      </c>
-      <c r="DC13" s="12">
-        <v>46</v>
-      </c>
-      <c r="DD13" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DE13" s="12">
-        <v>12</v>
-      </c>
       <c r="DF13" s="12">
-        <v>19</v>
+        <v>300000</v>
       </c>
       <c r="DG13" s="12">
         <v>300000</v>
       </c>
       <c r="DH13" s="12">
-        <v>53</v>
+        <v>300000</v>
       </c>
       <c r="DI13" s="12">
-        <v>18</v>
+        <v>300000</v>
       </c>
       <c r="DJ13" s="12">
-        <v>18</v>
+        <v>300000</v>
       </c>
       <c r="DK13" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="DL13" s="12">
-        <v>240</v>
+        <v>300000</v>
       </c>
       <c r="DM13" s="12">
-        <v>15</v>
+        <v>300000</v>
       </c>
       <c r="DN13" s="12">
         <v>300000</v>
       </c>
       <c r="DO13" s="12">
-        <v>1510</v>
+        <v>300000</v>
       </c>
       <c r="DP13" s="12">
-        <v>3013</v>
+        <v>300000</v>
       </c>
       <c r="DQ13" s="12">
-        <v>571</v>
+        <v>300000</v>
       </c>
       <c r="DR13" s="12">
-        <v>153</v>
+        <v>300000</v>
       </c>
       <c r="DS13" s="12">
-        <v>35</v>
+        <v>300000</v>
       </c>
       <c r="DT13" s="12">
         <v>300000</v>
       </c>
       <c r="DU13" s="12">
-        <v>167</v>
+        <v>2225</v>
       </c>
       <c r="DV13" s="12">
         <v>300000</v>
       </c>
       <c r="DW13" s="12">
-        <v>7</v>
+        <v>300000</v>
       </c>
       <c r="DX13" s="12">
         <v>300000</v>
       </c>
       <c r="DY13" s="12">
-        <v>279</v>
+        <v>300000</v>
       </c>
       <c r="DZ13" s="12">
-        <v>23</v>
+        <v>300000</v>
       </c>
       <c r="EA13" s="12">
-        <v>335</v>
+        <v>300000</v>
       </c>
       <c r="EB13" s="12">
-        <v>8222</v>
+        <v>7153</v>
       </c>
       <c r="EC13" s="12">
-        <v>215462</v>
+        <v>300000</v>
       </c>
       <c r="ED13" s="12">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="EE13" s="12">
-        <v>790</v>
+        <v>300000</v>
       </c>
       <c r="EF13" s="12">
-        <v>4</v>
+        <v>300000</v>
       </c>
       <c r="EG13" s="12">
-        <v>299403</v>
+        <v>300000</v>
       </c>
       <c r="EH13" s="12">
-        <v>19</v>
+        <v>300000</v>
       </c>
       <c r="EI13" s="12">
-        <v>22238</v>
+        <v>300000</v>
       </c>
       <c r="EJ13" s="12">
         <v>300000</v>
       </c>
       <c r="EK13" s="12">
-        <v>4397</v>
+        <v>300000</v>
       </c>
       <c r="EL13" s="12">
-        <v>5047</v>
+        <v>300000</v>
       </c>
       <c r="EM13" s="12">
         <v>300000</v>
       </c>
       <c r="EN13" s="12">
-        <v>60108</v>
+        <v>300000</v>
       </c>
       <c r="EO13" s="12">
-        <v>300000</v>
+        <v>5007</v>
       </c>
       <c r="EP13" s="12">
-        <v>1017</v>
+        <v>300000</v>
       </c>
       <c r="EQ13" s="12">
         <v>300000</v>
       </c>
       <c r="ES13" s="10">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f>COUNTIF(B13:EQ13,"&gt;299999")</f>
+        <v>132</v>
       </c>
       <c r="ET13" s="11">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f>MIN(B13:EQ13)</f>
+        <v>29</v>
       </c>
       <c r="EU13" s="11">
-        <f t="shared" si="9"/>
-        <v>31.5</v>
+        <f>_xlfn.PERCENTILE.EXC(B13:EQ13,0.25)</f>
+        <v>300000</v>
       </c>
       <c r="EV13" s="11">
-        <f t="shared" si="10"/>
-        <v>366.5</v>
+        <f>MEDIAN(B13:EQ13)</f>
+        <v>300000</v>
       </c>
       <c r="EW13" s="11">
-        <f t="shared" si="11"/>
-        <v>51905.993150684932</v>
+        <f>AVERAGE(B13:EQ13)</f>
+        <v>272286.93835616438</v>
       </c>
       <c r="EX13" s="11">
-        <f t="shared" si="12"/>
-        <v>18132.75</v>
+        <f>_xlfn.PERCENTILE.EXC(B13:EQ13,0.75)</f>
+        <v>300000</v>
       </c>
       <c r="EY13" s="11">
-        <f t="shared" si="13"/>
+        <f>MAX(B13:EQ13)</f>
         <v>300000</v>
       </c>
     </row>
     <row r="14" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" s="12">
-        <v>300000</v>
+        <v>62</v>
       </c>
       <c r="C14" s="12">
-        <v>300000</v>
+        <v>30</v>
       </c>
       <c r="D14" s="12">
-        <v>300000</v>
+        <v>68</v>
       </c>
       <c r="E14" s="12">
-        <v>300000</v>
+        <v>135</v>
       </c>
       <c r="F14" s="12">
-        <v>300000</v>
+        <v>756</v>
       </c>
       <c r="G14" s="12">
-        <v>300000</v>
+        <v>52734</v>
       </c>
       <c r="H14" s="12">
-        <v>32</v>
+        <v>294</v>
       </c>
       <c r="I14" s="12">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="J14" s="12">
-        <v>300000</v>
+        <v>340</v>
       </c>
       <c r="K14" s="12">
-        <v>300000</v>
+        <v>477</v>
       </c>
       <c r="L14" s="12">
-        <v>300000</v>
+        <v>163</v>
       </c>
       <c r="M14" s="12">
-        <v>300000</v>
+        <v>1043</v>
       </c>
       <c r="N14" s="12">
-        <v>300000</v>
+        <v>813</v>
       </c>
       <c r="O14" s="12">
-        <v>300000</v>
+        <v>485</v>
       </c>
       <c r="P14" s="12">
-        <v>65644</v>
+        <v>1351</v>
       </c>
       <c r="Q14" s="12">
-        <v>300000</v>
+        <v>69670</v>
       </c>
       <c r="R14" s="12">
-        <v>300000</v>
+        <v>3560</v>
       </c>
       <c r="S14" s="12">
-        <v>300000</v>
+        <v>1416</v>
       </c>
       <c r="T14" s="12">
         <v>300000</v>
       </c>
       <c r="U14" s="12">
-        <v>300000</v>
+        <v>3812</v>
       </c>
       <c r="V14" s="12">
-        <v>300000</v>
+        <v>3185</v>
       </c>
       <c r="W14" s="12">
-        <v>300000</v>
+        <v>58</v>
       </c>
       <c r="X14" s="12">
-        <v>300000</v>
+        <v>265</v>
       </c>
       <c r="Y14" s="12">
-        <v>300000</v>
+        <v>1388</v>
       </c>
       <c r="Z14" s="12">
-        <v>300000</v>
+        <v>360</v>
       </c>
       <c r="AA14" s="12">
-        <v>300000</v>
+        <v>1222</v>
       </c>
       <c r="AB14" s="12">
-        <v>300000</v>
+        <v>219</v>
       </c>
       <c r="AC14" s="12">
-        <v>130</v>
+        <v>412</v>
       </c>
       <c r="AD14" s="12">
-        <v>300000</v>
+        <v>656</v>
       </c>
       <c r="AE14" s="12">
-        <v>300000</v>
+        <v>18818</v>
       </c>
       <c r="AF14" s="12">
         <v>300000</v>
       </c>
       <c r="AG14" s="12">
-        <v>300000</v>
+        <v>134</v>
       </c>
       <c r="AH14" s="12">
-        <v>300000</v>
+        <v>24266</v>
       </c>
       <c r="AI14" s="12">
-        <v>300000</v>
+        <v>7543</v>
       </c>
       <c r="AJ14" s="12">
-        <v>300000</v>
+        <v>41</v>
       </c>
       <c r="AK14" s="12">
         <v>300000</v>
@@ -16543,313 +16534,313 @@
         <v>300000</v>
       </c>
       <c r="AN14" s="12">
-        <v>300000</v>
+        <v>378</v>
       </c>
       <c r="AO14" s="12">
-        <v>300000</v>
+        <v>2198</v>
       </c>
       <c r="AP14" s="12">
-        <v>300000</v>
+        <v>438</v>
       </c>
       <c r="AQ14" s="12">
-        <v>300000</v>
+        <v>514</v>
       </c>
       <c r="AR14" s="12">
-        <v>300000</v>
+        <v>532</v>
       </c>
       <c r="AS14" s="12">
-        <v>300000</v>
+        <v>798</v>
       </c>
       <c r="AT14" s="12">
-        <v>300000</v>
+        <v>101</v>
       </c>
       <c r="AU14" s="12">
-        <v>300000</v>
+        <v>4182</v>
       </c>
       <c r="AV14" s="12">
-        <v>300000</v>
+        <v>47986</v>
       </c>
       <c r="AW14" s="12">
-        <v>300000</v>
+        <v>152</v>
       </c>
       <c r="AX14" s="12">
-        <v>300000</v>
+        <v>52</v>
       </c>
       <c r="AY14" s="12">
-        <v>300000</v>
+        <v>11425</v>
       </c>
       <c r="AZ14" s="12">
         <v>300000</v>
       </c>
       <c r="BA14" s="12">
-        <v>300000</v>
+        <v>11970</v>
       </c>
       <c r="BB14" s="12">
-        <v>300000</v>
+        <v>692</v>
       </c>
       <c r="BC14" s="12">
-        <v>300000</v>
+        <v>150148</v>
       </c>
       <c r="BD14" s="12">
-        <v>300000</v>
+        <v>4518</v>
       </c>
       <c r="BE14" s="12">
-        <v>7275</v>
+        <v>1225</v>
       </c>
       <c r="BF14" s="12">
         <v>300000</v>
       </c>
       <c r="BG14" s="12">
-        <v>300000</v>
+        <v>301</v>
       </c>
       <c r="BH14" s="12">
-        <v>300000</v>
+        <v>8241</v>
       </c>
       <c r="BI14" s="12">
-        <v>300000</v>
+        <v>92</v>
       </c>
       <c r="BJ14" s="12">
-        <v>300000</v>
+        <v>111</v>
       </c>
       <c r="BK14" s="12">
-        <v>300000</v>
+        <v>7704</v>
       </c>
       <c r="BL14" s="12">
-        <v>300000</v>
+        <v>123</v>
       </c>
       <c r="BM14" s="12">
-        <v>294</v>
+        <v>1276</v>
       </c>
       <c r="BN14" s="12">
         <v>300000</v>
       </c>
       <c r="BO14" s="12">
-        <v>300000</v>
+        <v>4717</v>
       </c>
       <c r="BP14" s="12">
-        <v>300000</v>
+        <v>709</v>
       </c>
       <c r="BQ14" s="12">
-        <v>300000</v>
+        <v>829</v>
       </c>
       <c r="BR14" s="12">
-        <v>300000</v>
+        <v>64</v>
       </c>
       <c r="BS14" s="12">
-        <v>300000</v>
+        <v>44</v>
       </c>
       <c r="BT14" s="12">
-        <v>300000</v>
+        <v>167</v>
       </c>
       <c r="BU14" s="12">
-        <v>300000</v>
+        <v>1045</v>
       </c>
       <c r="BV14" s="12">
-        <v>300000</v>
+        <v>15371</v>
       </c>
       <c r="BW14" s="12">
-        <v>300000</v>
+        <v>3359</v>
       </c>
       <c r="BX14" s="12">
-        <v>300000</v>
+        <v>2385</v>
       </c>
       <c r="BY14" s="12">
         <v>300000</v>
       </c>
       <c r="BZ14" s="12">
-        <v>300000</v>
+        <v>254</v>
       </c>
       <c r="CA14" s="12">
-        <v>300000</v>
+        <v>791</v>
       </c>
       <c r="CB14" s="12">
         <v>300000</v>
       </c>
       <c r="CC14" s="12">
-        <v>300000</v>
+        <v>111</v>
       </c>
       <c r="CD14" s="12">
-        <v>300000</v>
+        <v>139</v>
       </c>
       <c r="CE14" s="12">
-        <v>65527</v>
+        <v>300000</v>
       </c>
       <c r="CF14" s="12">
-        <v>300000</v>
+        <v>127</v>
       </c>
       <c r="CG14" s="12">
         <v>300000</v>
       </c>
       <c r="CH14" s="12">
-        <v>300000</v>
+        <v>31</v>
       </c>
       <c r="CI14" s="12">
-        <v>300000</v>
+        <v>217</v>
       </c>
       <c r="CJ14" s="12">
-        <v>300000</v>
+        <v>227</v>
       </c>
       <c r="CK14" s="12">
-        <v>300000</v>
+        <v>147</v>
       </c>
       <c r="CL14" s="12">
-        <v>300000</v>
+        <v>21016</v>
       </c>
       <c r="CM14" s="12">
-        <v>265</v>
+        <v>464</v>
       </c>
       <c r="CN14" s="12">
         <v>300000</v>
       </c>
       <c r="CO14" s="12">
-        <v>300000</v>
+        <v>212</v>
       </c>
       <c r="CP14" s="12">
-        <v>300000</v>
+        <v>8221</v>
       </c>
       <c r="CQ14" s="12">
-        <v>300000</v>
+        <v>61</v>
       </c>
       <c r="CR14" s="12">
-        <v>300000</v>
+        <v>5784</v>
       </c>
       <c r="CS14" s="12">
-        <v>300000</v>
+        <v>26994</v>
       </c>
       <c r="CT14" s="12">
-        <v>300000</v>
+        <v>18692</v>
       </c>
       <c r="CU14" s="12">
-        <v>300000</v>
+        <v>993</v>
       </c>
       <c r="CV14" s="12">
-        <v>300000</v>
+        <v>2602</v>
       </c>
       <c r="CW14" s="12">
-        <v>300000</v>
+        <v>57</v>
       </c>
       <c r="CX14" s="12">
-        <v>300000</v>
+        <v>81</v>
       </c>
       <c r="CY14" s="12">
-        <v>300000</v>
+        <v>175</v>
       </c>
       <c r="CZ14" s="12">
-        <v>300000</v>
+        <v>76672</v>
       </c>
       <c r="DA14" s="12">
-        <v>300000</v>
+        <v>10154</v>
       </c>
       <c r="DB14" s="12">
-        <v>300000</v>
+        <v>82</v>
       </c>
       <c r="DC14" s="12">
-        <v>300000</v>
+        <v>206</v>
       </c>
       <c r="DD14" s="12">
-        <v>300000</v>
+        <v>1032</v>
       </c>
       <c r="DE14" s="12">
+        <v>71</v>
+      </c>
+      <c r="DF14" s="12">
+        <v>22986</v>
+      </c>
+      <c r="DG14" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DH14" s="12">
+        <v>687</v>
+      </c>
+      <c r="DI14" s="12">
+        <v>67</v>
+      </c>
+      <c r="DJ14" s="12">
+        <v>87</v>
+      </c>
+      <c r="DK14" s="12">
+        <v>55</v>
+      </c>
+      <c r="DL14" s="12">
+        <v>658</v>
+      </c>
+      <c r="DM14" s="12">
+        <v>264</v>
+      </c>
+      <c r="DN14" s="12">
+        <v>12047</v>
+      </c>
+      <c r="DO14" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DP14" s="12">
+        <v>4196</v>
+      </c>
+      <c r="DQ14" s="12">
+        <v>650</v>
+      </c>
+      <c r="DR14" s="12">
+        <v>500</v>
+      </c>
+      <c r="DS14" s="12">
+        <v>184</v>
+      </c>
+      <c r="DT14" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DU14" s="12">
+        <v>13618</v>
+      </c>
+      <c r="DV14" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DW14" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DX14" s="12">
+        <v>31210</v>
+      </c>
+      <c r="DY14" s="12">
+        <v>21639</v>
+      </c>
+      <c r="DZ14" s="12">
+        <v>300000</v>
+      </c>
+      <c r="EA14" s="12">
+        <v>53554</v>
+      </c>
+      <c r="EB14" s="12">
+        <v>61241</v>
+      </c>
+      <c r="EC14" s="12">
+        <v>300000</v>
+      </c>
+      <c r="ED14" s="12">
+        <v>300000</v>
+      </c>
+      <c r="EE14" s="12">
+        <v>1503</v>
+      </c>
+      <c r="EF14" s="12">
         <v>29</v>
       </c>
-      <c r="DF14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DG14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DH14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DI14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DJ14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DK14" s="12">
-        <v>39</v>
-      </c>
-      <c r="DL14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DM14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DN14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DO14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DP14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DQ14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DR14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DS14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DT14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DU14" s="12">
-        <v>2225</v>
-      </c>
-      <c r="DV14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DW14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DX14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DY14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DZ14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="EA14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="EB14" s="12">
-        <v>7153</v>
-      </c>
-      <c r="EC14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="ED14" s="12">
-        <v>173</v>
-      </c>
-      <c r="EE14" s="12">
-        <v>300000</v>
-      </c>
-      <c r="EF14" s="12">
-        <v>300000</v>
-      </c>
       <c r="EG14" s="12">
         <v>300000</v>
       </c>
       <c r="EH14" s="12">
-        <v>300000</v>
+        <v>54</v>
       </c>
       <c r="EI14" s="12">
-        <v>300000</v>
+        <v>59448</v>
       </c>
       <c r="EJ14" s="12">
         <v>300000</v>
       </c>
       <c r="EK14" s="12">
-        <v>300000</v>
+        <v>108194</v>
       </c>
       <c r="EL14" s="12">
-        <v>300000</v>
+        <v>130570</v>
       </c>
       <c r="EM14" s="12">
         <v>300000</v>
@@ -16858,40 +16849,40 @@
         <v>300000</v>
       </c>
       <c r="EO14" s="12">
-        <v>5007</v>
+        <v>11219</v>
       </c>
       <c r="EP14" s="12">
-        <v>300000</v>
+        <v>3240</v>
       </c>
       <c r="EQ14" s="12">
         <v>300000</v>
       </c>
       <c r="ES14" s="10">
-        <f t="shared" si="7"/>
-        <v>132</v>
+        <f>COUNTIF(B14:EQ14,"&gt;299999")</f>
+        <v>26</v>
       </c>
       <c r="ET14" s="11">
-        <f t="shared" si="8"/>
+        <f>MIN(B14:EQ14)</f>
         <v>29</v>
       </c>
       <c r="EU14" s="11">
-        <f t="shared" si="9"/>
-        <v>300000</v>
+        <f>_xlfn.PERCENTILE.EXC(B14:EQ14,0.25)</f>
+        <v>210.5</v>
       </c>
       <c r="EV14" s="11">
-        <f t="shared" si="10"/>
-        <v>300000</v>
+        <f>MEDIAN(B14:EQ14)</f>
+        <v>1250.5</v>
       </c>
       <c r="EW14" s="11">
-        <f t="shared" si="11"/>
-        <v>272286.93835616438</v>
+        <f>AVERAGE(B14:EQ14)</f>
+        <v>61598.054794520547</v>
       </c>
       <c r="EX14" s="11">
-        <f t="shared" si="12"/>
-        <v>300000</v>
+        <f>_xlfn.PERCENTILE.EXC(B14:EQ14,0.75)</f>
+        <v>35404</v>
       </c>
       <c r="EY14" s="11">
-        <f t="shared" si="13"/>
+        <f>MAX(B14:EQ14)</f>
         <v>300000</v>
       </c>
     </row>
@@ -17338,139 +17329,139 @@
         <v>300000</v>
       </c>
       <c r="ES15" s="10">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(B15:EQ15,"&gt;299999")</f>
         <v>132</v>
       </c>
       <c r="ET15" s="11">
-        <f t="shared" si="8"/>
+        <f>MIN(B15:EQ15)</f>
         <v>29</v>
       </c>
       <c r="EU15" s="11">
-        <f t="shared" si="9"/>
+        <f>_xlfn.PERCENTILE.EXC(B15:EQ15,0.25)</f>
         <v>300000</v>
       </c>
       <c r="EV15" s="11">
-        <f t="shared" si="10"/>
+        <f>MEDIAN(B15:EQ15)</f>
         <v>300000</v>
       </c>
       <c r="EW15" s="11">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(B15:EQ15)</f>
         <v>272432.19178082194</v>
       </c>
       <c r="EX15" s="11">
-        <f t="shared" si="12"/>
+        <f>_xlfn.PERCENTILE.EXC(B15:EQ15,0.75)</f>
         <v>300000</v>
       </c>
       <c r="EY15" s="11">
-        <f t="shared" si="13"/>
+        <f>MAX(B15:EQ15)</f>
         <v>300000</v>
       </c>
     </row>
     <row r="16" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" s="12">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C16" s="12">
         <v>30</v>
       </c>
       <c r="D16" s="12">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="12">
+        <v>121</v>
+      </c>
+      <c r="F16" s="12">
+        <v>674</v>
+      </c>
+      <c r="G16" s="12">
+        <v>54758</v>
+      </c>
+      <c r="H16" s="12">
+        <v>239</v>
+      </c>
+      <c r="I16" s="12">
+        <v>206</v>
+      </c>
+      <c r="J16" s="12">
+        <v>309</v>
+      </c>
+      <c r="K16" s="12">
+        <v>451</v>
+      </c>
+      <c r="L16" s="12">
+        <v>161</v>
+      </c>
+      <c r="M16" s="12">
+        <v>1381</v>
+      </c>
+      <c r="N16" s="12">
+        <v>692</v>
+      </c>
+      <c r="O16" s="12">
+        <v>508</v>
+      </c>
+      <c r="P16" s="12">
+        <v>1450</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>62635</v>
+      </c>
+      <c r="R16" s="12">
+        <v>3341</v>
+      </c>
+      <c r="S16" s="12">
+        <v>1374</v>
+      </c>
+      <c r="T16" s="12">
+        <v>300000</v>
+      </c>
+      <c r="U16" s="12">
+        <v>4234</v>
+      </c>
+      <c r="V16" s="12">
+        <v>2604</v>
+      </c>
+      <c r="W16" s="12">
+        <v>55</v>
+      </c>
+      <c r="X16" s="12">
+        <v>293</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>906</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>313</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>1242</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>185</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>413</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>690</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>14820</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AG16" s="12">
         <v>135</v>
       </c>
-      <c r="F16" s="12">
-        <v>756</v>
-      </c>
-      <c r="G16" s="12">
-        <v>52734</v>
-      </c>
-      <c r="H16" s="12">
-        <v>294</v>
-      </c>
-      <c r="I16" s="12">
-        <v>180</v>
-      </c>
-      <c r="J16" s="12">
-        <v>340</v>
-      </c>
-      <c r="K16" s="12">
-        <v>477</v>
-      </c>
-      <c r="L16" s="12">
-        <v>163</v>
-      </c>
-      <c r="M16" s="12">
-        <v>1043</v>
-      </c>
-      <c r="N16" s="12">
-        <v>813</v>
-      </c>
-      <c r="O16" s="12">
-        <v>485</v>
-      </c>
-      <c r="P16" s="12">
-        <v>1351</v>
-      </c>
-      <c r="Q16" s="12">
-        <v>69670</v>
-      </c>
-      <c r="R16" s="12">
-        <v>3560</v>
-      </c>
-      <c r="S16" s="12">
-        <v>1416</v>
-      </c>
-      <c r="T16" s="12">
-        <v>300000</v>
-      </c>
-      <c r="U16" s="12">
-        <v>3812</v>
-      </c>
-      <c r="V16" s="12">
-        <v>3185</v>
-      </c>
-      <c r="W16" s="12">
-        <v>58</v>
-      </c>
-      <c r="X16" s="12">
-        <v>265</v>
-      </c>
-      <c r="Y16" s="12">
-        <v>1388</v>
-      </c>
-      <c r="Z16" s="12">
-        <v>360</v>
-      </c>
-      <c r="AA16" s="12">
-        <v>1222</v>
-      </c>
-      <c r="AB16" s="12">
-        <v>219</v>
-      </c>
-      <c r="AC16" s="12">
-        <v>412</v>
-      </c>
-      <c r="AD16" s="12">
-        <v>656</v>
-      </c>
-      <c r="AE16" s="12">
-        <v>18818</v>
-      </c>
-      <c r="AF16" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AG16" s="12">
-        <v>134</v>
-      </c>
       <c r="AH16" s="12">
-        <v>24266</v>
+        <v>22362</v>
       </c>
       <c r="AI16" s="12">
-        <v>7543</v>
+        <v>6334</v>
       </c>
       <c r="AJ16" s="12">
         <v>41</v>
@@ -17485,262 +17476,262 @@
         <v>300000</v>
       </c>
       <c r="AN16" s="12">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO16" s="12">
-        <v>2198</v>
+        <v>2251</v>
       </c>
       <c r="AP16" s="12">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AQ16" s="12">
-        <v>514</v>
+        <v>544</v>
       </c>
       <c r="AR16" s="12">
-        <v>532</v>
+        <v>563</v>
       </c>
       <c r="AS16" s="12">
-        <v>798</v>
+        <v>733</v>
       </c>
       <c r="AT16" s="12">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AU16" s="12">
-        <v>4182</v>
+        <v>3527</v>
       </c>
       <c r="AV16" s="12">
-        <v>47986</v>
+        <v>60784</v>
       </c>
       <c r="AW16" s="12">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AX16" s="12">
         <v>52</v>
       </c>
       <c r="AY16" s="12">
-        <v>11425</v>
+        <v>11159</v>
       </c>
       <c r="AZ16" s="12">
         <v>300000</v>
       </c>
       <c r="BA16" s="12">
-        <v>11970</v>
+        <v>10685</v>
       </c>
       <c r="BB16" s="12">
-        <v>692</v>
+        <v>608</v>
       </c>
       <c r="BC16" s="12">
-        <v>150148</v>
+        <v>134715</v>
       </c>
       <c r="BD16" s="12">
-        <v>4518</v>
+        <v>3636</v>
       </c>
       <c r="BE16" s="12">
-        <v>1225</v>
+        <v>1160</v>
       </c>
       <c r="BF16" s="12">
         <v>300000</v>
       </c>
       <c r="BG16" s="12">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="BH16" s="12">
-        <v>8241</v>
+        <v>8248</v>
       </c>
       <c r="BI16" s="12">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BJ16" s="12">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BK16" s="12">
-        <v>7704</v>
+        <v>6447</v>
       </c>
       <c r="BL16" s="12">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="BM16" s="12">
-        <v>1276</v>
+        <v>998</v>
       </c>
       <c r="BN16" s="12">
         <v>300000</v>
       </c>
       <c r="BO16" s="12">
-        <v>4717</v>
+        <v>3669</v>
       </c>
       <c r="BP16" s="12">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="BQ16" s="12">
-        <v>829</v>
+        <v>749</v>
       </c>
       <c r="BR16" s="12">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="BS16" s="12">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BT16" s="12">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="BU16" s="12">
-        <v>1045</v>
+        <v>1383</v>
       </c>
       <c r="BV16" s="12">
-        <v>15371</v>
+        <v>13165</v>
       </c>
       <c r="BW16" s="12">
-        <v>3359</v>
+        <v>2824</v>
       </c>
       <c r="BX16" s="12">
-        <v>2385</v>
+        <v>1886</v>
       </c>
       <c r="BY16" s="12">
         <v>300000</v>
       </c>
       <c r="BZ16" s="12">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="CA16" s="12">
-        <v>791</v>
+        <v>642</v>
       </c>
       <c r="CB16" s="12">
         <v>300000</v>
       </c>
       <c r="CC16" s="12">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="CD16" s="12">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="CE16" s="12">
         <v>300000</v>
       </c>
       <c r="CF16" s="12">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CG16" s="12">
         <v>300000</v>
       </c>
       <c r="CH16" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="CI16" s="12">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="CJ16" s="12">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="CK16" s="12">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="CL16" s="12">
-        <v>21016</v>
+        <v>20774</v>
       </c>
       <c r="CM16" s="12">
-        <v>464</v>
+        <v>397</v>
       </c>
       <c r="CN16" s="12">
         <v>300000</v>
       </c>
       <c r="CO16" s="12">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="CP16" s="12">
-        <v>8221</v>
+        <v>7300</v>
       </c>
       <c r="CQ16" s="12">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="CR16" s="12">
-        <v>5784</v>
+        <v>5429</v>
       </c>
       <c r="CS16" s="12">
-        <v>26994</v>
+        <v>24337</v>
       </c>
       <c r="CT16" s="12">
-        <v>18692</v>
+        <v>17574</v>
       </c>
       <c r="CU16" s="12">
-        <v>993</v>
+        <v>1037</v>
       </c>
       <c r="CV16" s="12">
-        <v>2602</v>
+        <v>2429</v>
       </c>
       <c r="CW16" s="12">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="CX16" s="12">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="CY16" s="12">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="CZ16" s="12">
-        <v>76672</v>
+        <v>74765</v>
       </c>
       <c r="DA16" s="12">
-        <v>10154</v>
+        <v>9816</v>
       </c>
       <c r="DB16" s="12">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="DC16" s="12">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="DD16" s="12">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="DE16" s="12">
         <v>71</v>
       </c>
       <c r="DF16" s="12">
-        <v>22986</v>
+        <v>20218</v>
       </c>
       <c r="DG16" s="12">
         <v>300000</v>
       </c>
       <c r="DH16" s="12">
-        <v>687</v>
+        <v>664</v>
       </c>
       <c r="DI16" s="12">
         <v>67</v>
       </c>
       <c r="DJ16" s="12">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="DK16" s="12">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="DL16" s="12">
-        <v>658</v>
+        <v>617</v>
       </c>
       <c r="DM16" s="12">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="DN16" s="12">
-        <v>12047</v>
+        <v>11683</v>
       </c>
       <c r="DO16" s="12">
         <v>300000</v>
       </c>
       <c r="DP16" s="12">
-        <v>4196</v>
+        <v>4154</v>
       </c>
       <c r="DQ16" s="12">
-        <v>650</v>
+        <v>613</v>
       </c>
       <c r="DR16" s="12">
-        <v>500</v>
+        <v>447</v>
       </c>
       <c r="DS16" s="12">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DT16" s="12">
         <v>300000</v>
       </c>
       <c r="DU16" s="12">
-        <v>13618</v>
+        <v>11180</v>
       </c>
       <c r="DV16" s="12">
         <v>300000</v>
@@ -17749,19 +17740,19 @@
         <v>300000</v>
       </c>
       <c r="DX16" s="12">
-        <v>31210</v>
+        <v>27724</v>
       </c>
       <c r="DY16" s="12">
-        <v>21639</v>
+        <v>26727</v>
       </c>
       <c r="DZ16" s="12">
         <v>300000</v>
       </c>
       <c r="EA16" s="12">
-        <v>53554</v>
+        <v>51064</v>
       </c>
       <c r="EB16" s="12">
-        <v>61241</v>
+        <v>57869</v>
       </c>
       <c r="EC16" s="12">
         <v>300000</v>
@@ -17770,7 +17761,7 @@
         <v>300000</v>
       </c>
       <c r="EE16" s="12">
-        <v>1503</v>
+        <v>1532</v>
       </c>
       <c r="EF16" s="12">
         <v>29</v>
@@ -17779,19 +17770,19 @@
         <v>300000</v>
       </c>
       <c r="EH16" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="EI16" s="12">
-        <v>59448</v>
+        <v>39805</v>
       </c>
       <c r="EJ16" s="12">
         <v>300000</v>
       </c>
       <c r="EK16" s="12">
-        <v>108194</v>
+        <v>103009</v>
       </c>
       <c r="EL16" s="12">
-        <v>130570</v>
+        <v>113807</v>
       </c>
       <c r="EM16" s="12">
         <v>300000</v>
@@ -17800,522 +17791,513 @@
         <v>300000</v>
       </c>
       <c r="EO16" s="12">
-        <v>11219</v>
+        <v>9623</v>
       </c>
       <c r="EP16" s="12">
-        <v>3240</v>
+        <v>2735</v>
       </c>
       <c r="EQ16" s="12">
         <v>300000</v>
       </c>
       <c r="ES16" s="10">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(B16:EQ16,"&gt;299999")</f>
         <v>26</v>
       </c>
       <c r="ET16" s="11">
-        <f t="shared" si="8"/>
+        <f>MIN(B16:EQ16)</f>
         <v>29</v>
       </c>
       <c r="EU16" s="11">
-        <f t="shared" si="9"/>
-        <v>210.5</v>
+        <f>_xlfn.PERCENTILE.EXC(B16:EQ16,0.25)</f>
+        <v>186.75</v>
       </c>
       <c r="EV16" s="11">
-        <f t="shared" si="10"/>
-        <v>1250.5</v>
+        <f>MEDIAN(B16:EQ16)</f>
+        <v>1308</v>
       </c>
       <c r="EW16" s="11">
-        <f t="shared" si="11"/>
-        <v>61598.054794520547</v>
+        <f>AVERAGE(B16:EQ16)</f>
+        <v>61009.321917808222</v>
       </c>
       <c r="EX16" s="11">
-        <f t="shared" si="12"/>
-        <v>35404</v>
+        <f>_xlfn.PERCENTILE.EXC(B16:EQ16,0.75)</f>
+        <v>30744.25</v>
       </c>
       <c r="EY16" s="11">
-        <f t="shared" si="13"/>
+        <f>MAX(B16:EQ16)</f>
         <v>300000</v>
       </c>
     </row>
     <row r="17" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="12">
+        <v>24</v>
+      </c>
+      <c r="C17" s="12">
+        <v>5</v>
+      </c>
+      <c r="D17" s="12">
+        <v>12</v>
+      </c>
+      <c r="E17" s="12">
+        <v>37</v>
+      </c>
+      <c r="F17" s="12">
+        <v>678</v>
+      </c>
+      <c r="G17" s="12">
+        <v>8759</v>
+      </c>
+      <c r="H17" s="12">
+        <v>34</v>
+      </c>
+      <c r="I17" s="12">
+        <v>9</v>
+      </c>
+      <c r="J17" s="12">
+        <v>32</v>
+      </c>
+      <c r="K17" s="12">
+        <v>55</v>
+      </c>
+      <c r="L17" s="12">
+        <v>12</v>
+      </c>
+      <c r="M17" s="12">
+        <v>26</v>
+      </c>
+      <c r="N17" s="12">
+        <v>20151</v>
+      </c>
+      <c r="O17" s="12">
+        <v>229</v>
+      </c>
+      <c r="P17" s="12">
+        <v>300000</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>300000</v>
+      </c>
+      <c r="R17" s="12">
+        <v>1755</v>
+      </c>
+      <c r="S17" s="12">
+        <v>5005</v>
+      </c>
+      <c r="T17" s="12">
+        <v>448</v>
+      </c>
+      <c r="U17" s="12">
+        <v>677</v>
+      </c>
+      <c r="V17" s="12">
+        <v>1851</v>
+      </c>
+      <c r="W17" s="12">
+        <v>8</v>
+      </c>
+      <c r="X17" s="12">
+        <v>36</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>533</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>184</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>207</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>66</v>
+      </c>
+      <c r="AC17" s="12">
+        <v>120</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>56</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>3861</v>
+      </c>
+      <c r="AF17" s="12">
+        <v>36</v>
+      </c>
+      <c r="AG17" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AH17" s="12">
+        <v>11210</v>
+      </c>
+      <c r="AI17" s="12">
+        <v>204</v>
+      </c>
+      <c r="AJ17" s="12">
+        <v>11</v>
+      </c>
+      <c r="AK17" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AL17" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AM17" s="12">
+        <v>29205</v>
+      </c>
+      <c r="AN17" s="12">
+        <v>162</v>
+      </c>
+      <c r="AO17" s="12">
+        <v>65694</v>
+      </c>
+      <c r="AP17" s="12">
+        <v>1226</v>
+      </c>
+      <c r="AQ17" s="12">
+        <v>19546</v>
+      </c>
+      <c r="AR17" s="12">
+        <v>19527</v>
+      </c>
+      <c r="AS17" s="12">
+        <v>30</v>
+      </c>
+      <c r="AT17" s="12">
+        <v>26</v>
+      </c>
+      <c r="AU17" s="12">
+        <v>20</v>
+      </c>
+      <c r="AV17" s="12">
+        <v>2752</v>
+      </c>
+      <c r="AW17" s="12">
+        <v>86</v>
+      </c>
+      <c r="AX17" s="12">
+        <v>12828</v>
+      </c>
+      <c r="AY17" s="12">
+        <v>6527</v>
+      </c>
+      <c r="AZ17" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BA17" s="12">
+        <v>5499</v>
+      </c>
+      <c r="BB17" s="12">
+        <v>169</v>
+      </c>
+      <c r="BC17" s="12">
+        <v>17668</v>
+      </c>
+      <c r="BD17" s="12">
+        <v>5430</v>
+      </c>
+      <c r="BE17" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BF17" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BG17" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BH17" s="12">
+        <v>5275</v>
+      </c>
+      <c r="BI17" s="12">
+        <v>23</v>
+      </c>
+      <c r="BJ17" s="12">
+        <v>9</v>
+      </c>
+      <c r="BK17" s="12">
+        <v>6207</v>
+      </c>
+      <c r="BL17" s="12">
+        <v>28</v>
+      </c>
+      <c r="BM17" s="12">
+        <v>1227</v>
+      </c>
+      <c r="BN17" s="12">
+        <v>87296</v>
+      </c>
+      <c r="BO17" s="12">
+        <v>1979</v>
+      </c>
+      <c r="BP17" s="12">
+        <v>372</v>
+      </c>
+      <c r="BQ17" s="12">
+        <v>258</v>
+      </c>
+      <c r="BR17" s="12">
+        <v>12</v>
+      </c>
+      <c r="BS17" s="12">
         <v>6</v>
       </c>
-      <c r="B17" s="12">
-        <v>58</v>
-      </c>
-      <c r="C17" s="12">
-        <v>30</v>
-      </c>
-      <c r="D17" s="12">
-        <v>67</v>
-      </c>
-      <c r="E17" s="12">
-        <v>121</v>
-      </c>
-      <c r="F17" s="12">
-        <v>674</v>
-      </c>
-      <c r="G17" s="12">
-        <v>54758</v>
-      </c>
-      <c r="H17" s="12">
-        <v>239</v>
-      </c>
-      <c r="I17" s="12">
-        <v>206</v>
-      </c>
-      <c r="J17" s="12">
-        <v>309</v>
-      </c>
-      <c r="K17" s="12">
-        <v>451</v>
-      </c>
-      <c r="L17" s="12">
-        <v>161</v>
-      </c>
-      <c r="M17" s="12">
-        <v>1381</v>
-      </c>
-      <c r="N17" s="12">
-        <v>692</v>
-      </c>
-      <c r="O17" s="12">
-        <v>508</v>
-      </c>
-      <c r="P17" s="12">
-        <v>1450</v>
-      </c>
-      <c r="Q17" s="12">
-        <v>62635</v>
-      </c>
-      <c r="R17" s="12">
-        <v>3341</v>
-      </c>
-      <c r="S17" s="12">
-        <v>1374</v>
-      </c>
-      <c r="T17" s="12">
-        <v>300000</v>
-      </c>
-      <c r="U17" s="12">
-        <v>4234</v>
-      </c>
-      <c r="V17" s="12">
-        <v>2604</v>
-      </c>
-      <c r="W17" s="12">
-        <v>55</v>
-      </c>
-      <c r="X17" s="12">
-        <v>293</v>
-      </c>
-      <c r="Y17" s="12">
-        <v>906</v>
-      </c>
-      <c r="Z17" s="12">
-        <v>313</v>
-      </c>
-      <c r="AA17" s="12">
-        <v>1242</v>
-      </c>
-      <c r="AB17" s="12">
-        <v>185</v>
-      </c>
-      <c r="AC17" s="12">
-        <v>413</v>
-      </c>
-      <c r="AD17" s="12">
-        <v>690</v>
-      </c>
-      <c r="AE17" s="12">
-        <v>14820</v>
-      </c>
-      <c r="AF17" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AG17" s="12">
-        <v>135</v>
-      </c>
-      <c r="AH17" s="12">
-        <v>22362</v>
-      </c>
-      <c r="AI17" s="12">
-        <v>6334</v>
-      </c>
-      <c r="AJ17" s="12">
-        <v>41</v>
-      </c>
-      <c r="AK17" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AL17" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AM17" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AN17" s="12">
-        <v>379</v>
-      </c>
-      <c r="AO17" s="12">
-        <v>2251</v>
-      </c>
-      <c r="AP17" s="12">
-        <v>440</v>
-      </c>
-      <c r="AQ17" s="12">
-        <v>544</v>
-      </c>
-      <c r="AR17" s="12">
-        <v>563</v>
-      </c>
-      <c r="AS17" s="12">
-        <v>733</v>
-      </c>
-      <c r="AT17" s="12">
-        <v>98</v>
-      </c>
-      <c r="AU17" s="12">
-        <v>3527</v>
-      </c>
-      <c r="AV17" s="12">
-        <v>60784</v>
-      </c>
-      <c r="AW17" s="12">
-        <v>147</v>
-      </c>
-      <c r="AX17" s="12">
-        <v>52</v>
-      </c>
-      <c r="AY17" s="12">
-        <v>11159</v>
-      </c>
-      <c r="AZ17" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BA17" s="12">
-        <v>10685</v>
-      </c>
-      <c r="BB17" s="12">
-        <v>608</v>
-      </c>
-      <c r="BC17" s="12">
-        <v>134715</v>
-      </c>
-      <c r="BD17" s="12">
-        <v>3636</v>
-      </c>
-      <c r="BE17" s="12">
-        <v>1160</v>
-      </c>
-      <c r="BF17" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BG17" s="12">
-        <v>293</v>
-      </c>
-      <c r="BH17" s="12">
-        <v>8248</v>
-      </c>
-      <c r="BI17" s="12">
-        <v>91</v>
-      </c>
-      <c r="BJ17" s="12">
-        <v>112</v>
-      </c>
-      <c r="BK17" s="12">
-        <v>6447</v>
-      </c>
-      <c r="BL17" s="12">
-        <v>113</v>
-      </c>
-      <c r="BM17" s="12">
-        <v>998</v>
-      </c>
-      <c r="BN17" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BO17" s="12">
-        <v>3669</v>
-      </c>
-      <c r="BP17" s="12">
-        <v>727</v>
-      </c>
-      <c r="BQ17" s="12">
-        <v>749</v>
-      </c>
-      <c r="BR17" s="12">
-        <v>68</v>
-      </c>
-      <c r="BS17" s="12">
-        <v>45</v>
-      </c>
       <c r="BT17" s="12">
+        <v>15</v>
+      </c>
+      <c r="BU17" s="12">
+        <v>27</v>
+      </c>
+      <c r="BV17" s="12">
+        <v>2152</v>
+      </c>
+      <c r="BW17" s="12">
+        <v>342</v>
+      </c>
+      <c r="BX17" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BY17" s="12">
+        <v>5818</v>
+      </c>
+      <c r="BZ17" s="12">
+        <v>158</v>
+      </c>
+      <c r="CA17" s="12">
+        <v>526</v>
+      </c>
+      <c r="CB17" s="12">
+        <v>88870</v>
+      </c>
+      <c r="CC17" s="12">
+        <v>13</v>
+      </c>
+      <c r="CD17" s="12">
+        <v>23</v>
+      </c>
+      <c r="CE17" s="12">
+        <v>101048</v>
+      </c>
+      <c r="CF17" s="12">
+        <v>17</v>
+      </c>
+      <c r="CG17" s="12">
+        <v>37781</v>
+      </c>
+      <c r="CH17" s="12">
+        <v>5</v>
+      </c>
+      <c r="CI17" s="12">
+        <v>96</v>
+      </c>
+      <c r="CJ17" s="12">
+        <v>61</v>
+      </c>
+      <c r="CK17" s="12">
+        <v>459</v>
+      </c>
+      <c r="CL17" s="12">
+        <v>116</v>
+      </c>
+      <c r="CM17" s="12">
+        <v>117</v>
+      </c>
+      <c r="CN17" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CO17" s="12">
+        <v>62</v>
+      </c>
+      <c r="CP17" s="12">
+        <v>7258</v>
+      </c>
+      <c r="CQ17" s="12">
+        <v>9</v>
+      </c>
+      <c r="CR17" s="12">
+        <v>361</v>
+      </c>
+      <c r="CS17" s="12">
+        <v>87</v>
+      </c>
+      <c r="CT17" s="12">
+        <v>238</v>
+      </c>
+      <c r="CU17" s="12">
+        <v>79</v>
+      </c>
+      <c r="CV17" s="12">
+        <v>36442</v>
+      </c>
+      <c r="CW17" s="12">
+        <v>17</v>
+      </c>
+      <c r="CX17" s="12">
+        <v>1540</v>
+      </c>
+      <c r="CY17" s="12">
+        <v>29</v>
+      </c>
+      <c r="CZ17" s="12">
+        <v>23490</v>
+      </c>
+      <c r="DA17" s="12">
+        <v>2248</v>
+      </c>
+      <c r="DB17" s="12">
+        <v>8</v>
+      </c>
+      <c r="DC17" s="12">
+        <v>46</v>
+      </c>
+      <c r="DD17" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DE17" s="12">
+        <v>12</v>
+      </c>
+      <c r="DF17" s="12">
+        <v>19</v>
+      </c>
+      <c r="DG17" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DH17" s="12">
+        <v>53</v>
+      </c>
+      <c r="DI17" s="12">
+        <v>18</v>
+      </c>
+      <c r="DJ17" s="12">
+        <v>18</v>
+      </c>
+      <c r="DK17" s="12">
+        <v>23</v>
+      </c>
+      <c r="DL17" s="12">
+        <v>240</v>
+      </c>
+      <c r="DM17" s="12">
+        <v>15</v>
+      </c>
+      <c r="DN17" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DO17" s="12">
+        <v>1510</v>
+      </c>
+      <c r="DP17" s="12">
+        <v>3013</v>
+      </c>
+      <c r="DQ17" s="12">
+        <v>571</v>
+      </c>
+      <c r="DR17" s="12">
         <v>153</v>
       </c>
-      <c r="BU17" s="12">
-        <v>1383</v>
-      </c>
-      <c r="BV17" s="12">
-        <v>13165</v>
-      </c>
-      <c r="BW17" s="12">
-        <v>2824</v>
-      </c>
-      <c r="BX17" s="12">
-        <v>1886</v>
-      </c>
-      <c r="BY17" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BZ17" s="12">
-        <v>261</v>
-      </c>
-      <c r="CA17" s="12">
-        <v>642</v>
-      </c>
-      <c r="CB17" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CC17" s="12">
-        <v>113</v>
-      </c>
-      <c r="CD17" s="12">
-        <v>134</v>
-      </c>
-      <c r="CE17" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CF17" s="12">
-        <v>128</v>
-      </c>
-      <c r="CG17" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CH17" s="12">
-        <v>30</v>
-      </c>
-      <c r="CI17" s="12">
-        <v>185</v>
-      </c>
-      <c r="CJ17" s="12">
-        <v>194</v>
-      </c>
-      <c r="CK17" s="12">
-        <v>142</v>
-      </c>
-      <c r="CL17" s="12">
-        <v>20774</v>
-      </c>
-      <c r="CM17" s="12">
-        <v>397</v>
-      </c>
-      <c r="CN17" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CO17" s="12">
-        <v>193</v>
-      </c>
-      <c r="CP17" s="12">
-        <v>7300</v>
-      </c>
-      <c r="CQ17" s="12">
-        <v>60</v>
-      </c>
-      <c r="CR17" s="12">
-        <v>5429</v>
-      </c>
-      <c r="CS17" s="12">
-        <v>24337</v>
-      </c>
-      <c r="CT17" s="12">
-        <v>17574</v>
-      </c>
-      <c r="CU17" s="12">
-        <v>1037</v>
-      </c>
-      <c r="CV17" s="12">
-        <v>2429</v>
-      </c>
-      <c r="CW17" s="12">
-        <v>55</v>
-      </c>
-      <c r="CX17" s="12">
-        <v>83</v>
-      </c>
-      <c r="CY17" s="12">
-        <v>187</v>
-      </c>
-      <c r="CZ17" s="12">
-        <v>74765</v>
-      </c>
-      <c r="DA17" s="12">
-        <v>9816</v>
-      </c>
-      <c r="DB17" s="12">
-        <v>88</v>
-      </c>
-      <c r="DC17" s="12">
-        <v>184</v>
-      </c>
-      <c r="DD17" s="12">
-        <v>1010</v>
-      </c>
-      <c r="DE17" s="12">
-        <v>71</v>
-      </c>
-      <c r="DF17" s="12">
-        <v>20218</v>
-      </c>
-      <c r="DG17" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DH17" s="12">
-        <v>664</v>
-      </c>
-      <c r="DI17" s="12">
-        <v>67</v>
-      </c>
-      <c r="DJ17" s="12">
-        <v>89</v>
-      </c>
-      <c r="DK17" s="12">
-        <v>54</v>
-      </c>
-      <c r="DL17" s="12">
-        <v>617</v>
-      </c>
-      <c r="DM17" s="12">
-        <v>258</v>
-      </c>
-      <c r="DN17" s="12">
-        <v>11683</v>
-      </c>
-      <c r="DO17" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DP17" s="12">
-        <v>4154</v>
-      </c>
-      <c r="DQ17" s="12">
-        <v>613</v>
-      </c>
-      <c r="DR17" s="12">
-        <v>447</v>
-      </c>
       <c r="DS17" s="12">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="DT17" s="12">
         <v>300000</v>
       </c>
       <c r="DU17" s="12">
-        <v>11180</v>
+        <v>167</v>
       </c>
       <c r="DV17" s="12">
         <v>300000</v>
       </c>
       <c r="DW17" s="12">
-        <v>300000</v>
+        <v>7</v>
       </c>
       <c r="DX17" s="12">
-        <v>27724</v>
+        <v>300000</v>
       </c>
       <c r="DY17" s="12">
-        <v>26727</v>
+        <v>279</v>
       </c>
       <c r="DZ17" s="12">
-        <v>300000</v>
+        <v>23</v>
       </c>
       <c r="EA17" s="12">
-        <v>51064</v>
+        <v>335</v>
       </c>
       <c r="EB17" s="12">
-        <v>57869</v>
+        <v>8222</v>
       </c>
       <c r="EC17" s="12">
-        <v>300000</v>
+        <v>215462</v>
       </c>
       <c r="ED17" s="12">
-        <v>300000</v>
+        <v>101</v>
       </c>
       <c r="EE17" s="12">
-        <v>1532</v>
+        <v>790</v>
       </c>
       <c r="EF17" s="12">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="EG17" s="12">
-        <v>300000</v>
+        <v>299403</v>
       </c>
       <c r="EH17" s="12">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="EI17" s="12">
-        <v>39805</v>
+        <v>22238</v>
       </c>
       <c r="EJ17" s="12">
         <v>300000</v>
       </c>
       <c r="EK17" s="12">
-        <v>103009</v>
+        <v>4397</v>
       </c>
       <c r="EL17" s="12">
-        <v>113807</v>
+        <v>5047</v>
       </c>
       <c r="EM17" s="12">
         <v>300000</v>
       </c>
       <c r="EN17" s="12">
-        <v>300000</v>
+        <v>60108</v>
       </c>
       <c r="EO17" s="12">
-        <v>9623</v>
+        <v>300000</v>
       </c>
       <c r="EP17" s="12">
-        <v>2735</v>
+        <v>1017</v>
       </c>
       <c r="EQ17" s="12">
         <v>300000</v>
       </c>
       <c r="ES17" s="10">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f>COUNTIF(B17:EQ17,"&gt;299999")</f>
+        <v>21</v>
       </c>
       <c r="ET17" s="11">
-        <f t="shared" si="8"/>
-        <v>29</v>
+        <f>MIN(B17:EQ17)</f>
+        <v>4</v>
       </c>
       <c r="EU17" s="11">
-        <f t="shared" si="9"/>
-        <v>186.75</v>
+        <f>_xlfn.PERCENTILE.EXC(B17:EQ17,0.25)</f>
+        <v>31.5</v>
       </c>
       <c r="EV17" s="11">
-        <f t="shared" si="10"/>
-        <v>1308</v>
+        <f>MEDIAN(B17:EQ17)</f>
+        <v>366.5</v>
       </c>
       <c r="EW17" s="11">
-        <f t="shared" si="11"/>
-        <v>61009.321917808222</v>
+        <f>AVERAGE(B17:EQ17)</f>
+        <v>51905.993150684932</v>
       </c>
       <c r="EX17" s="11">
-        <f t="shared" si="12"/>
-        <v>30744.25</v>
+        <f>_xlfn.PERCENTILE.EXC(B17:EQ17,0.75)</f>
+        <v>18132.75</v>
       </c>
       <c r="EY17" s="11">
-        <f t="shared" si="13"/>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:155" x14ac:dyDescent="0.35">
-      <c r="ES18" s="10"/>
-      <c r="ET18" s="10"/>
-      <c r="EU18" s="10"/>
-      <c r="EV18" s="10"/>
-      <c r="EW18" s="10"/>
-      <c r="EX18" s="10"/>
-      <c r="EY18" s="10"/>
+        <f>MAX(B17:EQ17)</f>
+        <v>300000</v>
+      </c>
     </row>
     <row r="19" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -19222,880 +19204,880 @@
         <v>300000</v>
       </c>
       <c r="ES21" s="10">
-        <f t="shared" ref="ES21:ES26" si="14">COUNTIF(B21:EQ21,"&gt;299999")</f>
+        <f t="shared" ref="ES21:ES24" si="14">COUNTIF(B21:EQ21,"&gt;299999")</f>
         <v>17</v>
       </c>
       <c r="ET21" s="11">
-        <f t="shared" ref="ET21:ET26" si="15">MIN(B21:EQ21)</f>
+        <f t="shared" ref="ET21:ET24" si="15">MIN(B21:EQ21)</f>
         <v>9</v>
       </c>
       <c r="EU21" s="11">
-        <f t="shared" ref="EU21:EU26" si="16">_xlfn.PERCENTILE.EXC(B21:EQ21,0.25)</f>
+        <f t="shared" ref="EU21:EU24" si="16">_xlfn.PERCENTILE.EXC(B21:EQ21,0.25)</f>
         <v>162</v>
       </c>
       <c r="EV21" s="11">
-        <f t="shared" ref="EV21:EV26" si="17">MEDIAN(B21:EQ21)</f>
+        <f t="shared" ref="EV21:EV24" si="17">MEDIAN(B21:EQ21)</f>
         <v>1003</v>
       </c>
       <c r="EW21" s="11">
-        <f t="shared" ref="EW21:EW26" si="18">AVERAGE(B21:EQ21)</f>
+        <f t="shared" ref="EW21:EW24" si="18">AVERAGE(B21:EQ21)</f>
         <v>41224.636986301368</v>
       </c>
       <c r="EX21" s="11">
-        <f t="shared" ref="EX21:EX26" si="19">_xlfn.PERCENTILE.EXC(B21:EQ21,0.75)</f>
+        <f t="shared" ref="EX21:EX24" si="19">_xlfn.PERCENTILE.EXC(B21:EQ21,0.75)</f>
         <v>8782.25</v>
       </c>
       <c r="EY21" s="11">
-        <f t="shared" ref="EY21:EY26" si="20">MAX(B21:EQ21)</f>
+        <f t="shared" ref="EY21:EY24" si="20">MAX(B21:EQ21)</f>
         <v>300000</v>
       </c>
     </row>
     <row r="22" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" s="12">
-        <v>24</v>
+        <v>300000</v>
       </c>
       <c r="C22" s="12">
-        <v>5</v>
+        <v>300000</v>
       </c>
       <c r="D22" s="12">
-        <v>11</v>
+        <v>300000</v>
       </c>
       <c r="E22" s="12">
-        <v>35</v>
+        <v>300000</v>
       </c>
       <c r="F22" s="12">
-        <v>440</v>
+        <v>300000</v>
       </c>
       <c r="G22" s="12">
-        <v>9913</v>
+        <v>300000</v>
       </c>
       <c r="H22" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22" s="12">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="J22" s="12">
-        <v>17</v>
+        <v>300000</v>
       </c>
       <c r="K22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="L22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="M22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="N22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="O22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="P22" s="12">
+        <v>68287</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="R22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="S22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="T22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="U22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="V22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="W22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="X22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="Y22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="Z22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AB22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>153</v>
+      </c>
+      <c r="AD22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AE22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AF22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AG22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AH22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AI22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AJ22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AK22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AL22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AM22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AN22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AO22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AP22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AQ22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AR22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AS22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AT22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AU22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AV22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AW22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AX22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AY22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AZ22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BA22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BB22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BC22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BD22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BE22" s="12">
+        <v>7430</v>
+      </c>
+      <c r="BF22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BG22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BH22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BI22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BJ22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BK22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BL22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BM22" s="12">
+        <v>333</v>
+      </c>
+      <c r="BN22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BO22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BP22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BQ22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BR22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BS22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BT22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BU22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BV22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BW22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BX22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BY22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BZ22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CA22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CB22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CC22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CD22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CE22" s="12">
+        <v>68429</v>
+      </c>
+      <c r="CF22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CG22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CH22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CI22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CJ22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CK22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CL22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CM22" s="12">
+        <v>248</v>
+      </c>
+      <c r="CN22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CO22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CP22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CQ22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CR22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CS22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CT22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CU22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CV22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CW22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CX22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CY22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CZ22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DA22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DB22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DC22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DD22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DE22" s="12">
         <v>27</v>
       </c>
-      <c r="L22" s="12">
-        <v>10</v>
-      </c>
-      <c r="M22" s="12">
-        <v>22</v>
-      </c>
-      <c r="N22" s="12">
-        <v>8286</v>
-      </c>
-      <c r="O22" s="12">
-        <v>129</v>
-      </c>
-      <c r="P22" s="12">
-        <v>300000</v>
-      </c>
-      <c r="Q22" s="12">
-        <v>300000</v>
-      </c>
-      <c r="R22" s="12">
-        <v>1637</v>
-      </c>
-      <c r="S22" s="12">
-        <v>237</v>
-      </c>
-      <c r="T22" s="12">
-        <v>528</v>
-      </c>
-      <c r="U22" s="12">
-        <v>662</v>
-      </c>
-      <c r="V22" s="12">
-        <v>774</v>
-      </c>
-      <c r="W22" s="12">
-        <v>6</v>
-      </c>
-      <c r="X22" s="12">
-        <v>29</v>
-      </c>
-      <c r="Y22" s="12">
-        <v>243</v>
-      </c>
-      <c r="Z22" s="12">
-        <v>166</v>
-      </c>
-      <c r="AA22" s="12">
-        <v>133</v>
-      </c>
-      <c r="AB22" s="12">
-        <v>70</v>
-      </c>
-      <c r="AC22" s="12">
-        <v>117</v>
-      </c>
-      <c r="AD22" s="12">
-        <v>51</v>
-      </c>
-      <c r="AE22" s="12">
-        <v>2718</v>
-      </c>
-      <c r="AF22" s="12">
-        <v>42</v>
-      </c>
-      <c r="AG22" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AH22" s="12">
-        <v>11587</v>
-      </c>
-      <c r="AI22" s="12">
-        <v>202</v>
-      </c>
-      <c r="AJ22" s="12">
-        <v>12</v>
-      </c>
-      <c r="AK22" s="12">
-        <v>295120</v>
-      </c>
-      <c r="AL22" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AM22" s="12">
-        <v>16987</v>
-      </c>
-      <c r="AN22" s="12">
-        <v>183</v>
-      </c>
-      <c r="AO22" s="12">
-        <v>34434</v>
-      </c>
-      <c r="AP22" s="12">
-        <v>987</v>
-      </c>
-      <c r="AQ22" s="12">
-        <v>21462</v>
-      </c>
-      <c r="AR22" s="12">
-        <v>21418</v>
-      </c>
-      <c r="AS22" s="12">
-        <v>26</v>
-      </c>
-      <c r="AT22" s="12">
-        <v>29</v>
-      </c>
-      <c r="AU22" s="12">
-        <v>23</v>
-      </c>
-      <c r="AV22" s="12">
-        <v>2892</v>
-      </c>
-      <c r="AW22" s="12">
-        <v>60</v>
-      </c>
-      <c r="AX22" s="12">
-        <v>13175</v>
-      </c>
-      <c r="AY22" s="12">
-        <v>6380</v>
-      </c>
-      <c r="AZ22" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BA22" s="12">
-        <v>3922</v>
-      </c>
-      <c r="BB22" s="12">
-        <v>192</v>
-      </c>
-      <c r="BC22" s="12">
-        <v>17966</v>
-      </c>
-      <c r="BD22" s="12">
-        <v>5340</v>
-      </c>
-      <c r="BE22" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BF22" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BG22" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BH22" s="12">
-        <v>4527</v>
-      </c>
-      <c r="BI22" s="12">
-        <v>22</v>
-      </c>
-      <c r="BJ22" s="12">
-        <v>7</v>
-      </c>
-      <c r="BK22" s="12">
-        <v>2986</v>
-      </c>
-      <c r="BL22" s="12">
-        <v>20</v>
-      </c>
-      <c r="BM22" s="12">
-        <v>568</v>
-      </c>
-      <c r="BN22" s="12">
-        <v>40085</v>
-      </c>
-      <c r="BO22" s="12">
-        <v>939</v>
-      </c>
-      <c r="BP22" s="12">
-        <v>244</v>
-      </c>
-      <c r="BQ22" s="12">
-        <v>166</v>
-      </c>
-      <c r="BR22" s="12">
-        <v>10</v>
-      </c>
-      <c r="BS22" s="12">
-        <v>5</v>
-      </c>
-      <c r="BT22" s="12">
-        <v>13</v>
-      </c>
-      <c r="BU22" s="12">
-        <v>22</v>
-      </c>
-      <c r="BV22" s="12">
-        <v>1705</v>
-      </c>
-      <c r="BW22" s="12">
-        <v>254</v>
-      </c>
-      <c r="BX22" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BY22" s="12">
-        <v>4595</v>
-      </c>
-      <c r="BZ22" s="12">
-        <v>90</v>
-      </c>
-      <c r="CA22" s="12">
-        <v>428</v>
-      </c>
-      <c r="CB22" s="12">
-        <v>79774</v>
-      </c>
-      <c r="CC22" s="12">
-        <v>11</v>
-      </c>
-      <c r="CD22" s="12">
-        <v>14</v>
-      </c>
-      <c r="CE22" s="12">
-        <v>86833</v>
-      </c>
-      <c r="CF22" s="12">
-        <v>14</v>
-      </c>
-      <c r="CG22" s="12">
-        <v>34285</v>
-      </c>
-      <c r="CH22" s="12">
-        <v>4</v>
-      </c>
-      <c r="CI22" s="12">
-        <v>51</v>
-      </c>
-      <c r="CJ22" s="12">
-        <v>56</v>
-      </c>
-      <c r="CK22" s="12">
-        <v>201</v>
-      </c>
-      <c r="CL22" s="12">
-        <v>111</v>
-      </c>
-      <c r="CM22" s="12">
-        <v>105</v>
-      </c>
-      <c r="CN22" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CO22" s="12">
-        <v>47</v>
-      </c>
-      <c r="CP22" s="12">
-        <v>3629</v>
-      </c>
-      <c r="CQ22" s="12">
-        <v>7</v>
-      </c>
-      <c r="CR22" s="12">
-        <v>360</v>
-      </c>
-      <c r="CS22" s="12">
-        <v>52</v>
-      </c>
-      <c r="CT22" s="12">
-        <v>228</v>
-      </c>
-      <c r="CU22" s="12">
-        <v>77</v>
-      </c>
-      <c r="CV22" s="12">
-        <v>30083</v>
-      </c>
-      <c r="CW22" s="12">
-        <v>16</v>
-      </c>
-      <c r="CX22" s="12">
-        <v>1228</v>
-      </c>
-      <c r="CY22" s="12">
-        <v>28</v>
-      </c>
-      <c r="CZ22" s="12">
-        <v>21205</v>
-      </c>
-      <c r="DA22" s="12">
-        <v>2042</v>
-      </c>
-      <c r="DB22" s="12">
-        <v>8</v>
-      </c>
-      <c r="DC22" s="12">
-        <v>40</v>
-      </c>
-      <c r="DD22" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DE22" s="12">
-        <v>8</v>
-      </c>
       <c r="DF22" s="12">
-        <v>11</v>
+        <v>300000</v>
       </c>
       <c r="DG22" s="12">
         <v>300000</v>
       </c>
       <c r="DH22" s="12">
-        <v>39</v>
+        <v>300000</v>
       </c>
       <c r="DI22" s="12">
-        <v>17</v>
+        <v>300000</v>
       </c>
       <c r="DJ22" s="12">
-        <v>17</v>
+        <v>300000</v>
       </c>
       <c r="DK22" s="12">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="DL22" s="12">
-        <v>208</v>
+        <v>300000</v>
       </c>
       <c r="DM22" s="12">
-        <v>11</v>
+        <v>300000</v>
       </c>
       <c r="DN22" s="12">
         <v>300000</v>
       </c>
       <c r="DO22" s="12">
-        <v>1361</v>
+        <v>300000</v>
       </c>
       <c r="DP22" s="12">
-        <v>2675</v>
+        <v>300000</v>
       </c>
       <c r="DQ22" s="12">
-        <v>488</v>
+        <v>300000</v>
       </c>
       <c r="DR22" s="12">
-        <v>118</v>
+        <v>300000</v>
       </c>
       <c r="DS22" s="12">
-        <v>28</v>
+        <v>300000</v>
       </c>
       <c r="DT22" s="12">
         <v>300000</v>
       </c>
       <c r="DU22" s="12">
-        <v>143</v>
+        <v>1962</v>
       </c>
       <c r="DV22" s="12">
         <v>300000</v>
       </c>
       <c r="DW22" s="12">
-        <v>6</v>
+        <v>300000</v>
       </c>
       <c r="DX22" s="12">
         <v>300000</v>
       </c>
       <c r="DY22" s="12">
-        <v>167</v>
+        <v>300000</v>
       </c>
       <c r="DZ22" s="12">
-        <v>17</v>
+        <v>300000</v>
       </c>
       <c r="EA22" s="12">
-        <v>264</v>
+        <v>300000</v>
       </c>
       <c r="EB22" s="12">
-        <v>6197</v>
+        <v>5425</v>
       </c>
       <c r="EC22" s="12">
-        <v>201296</v>
+        <v>300000</v>
       </c>
       <c r="ED22" s="12">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="EE22" s="12">
-        <v>788</v>
+        <v>300000</v>
       </c>
       <c r="EF22" s="12">
-        <v>3</v>
+        <v>300000</v>
       </c>
       <c r="EG22" s="12">
-        <v>264813</v>
+        <v>300000</v>
       </c>
       <c r="EH22" s="12">
-        <v>14</v>
+        <v>300000</v>
       </c>
       <c r="EI22" s="12">
-        <v>19847</v>
+        <v>300000</v>
       </c>
       <c r="EJ22" s="12">
         <v>300000</v>
       </c>
       <c r="EK22" s="12">
-        <v>4390</v>
+        <v>300000</v>
       </c>
       <c r="EL22" s="12">
-        <v>5040</v>
+        <v>300000</v>
       </c>
       <c r="EM22" s="12">
         <v>300000</v>
       </c>
       <c r="EN22" s="12">
-        <v>55098</v>
+        <v>300000</v>
       </c>
       <c r="EO22" s="12">
-        <v>300000</v>
+        <v>4290</v>
       </c>
       <c r="EP22" s="12">
-        <v>439</v>
+        <v>300000</v>
       </c>
       <c r="EQ22" s="12">
         <v>300000</v>
       </c>
       <c r="ES22" s="10">
-        <f t="shared" si="14"/>
-        <v>20</v>
+        <f>COUNTIF(B22:EQ22,"&gt;299999")</f>
+        <v>132</v>
       </c>
       <c r="ET22" s="11">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f>MIN(B22:EQ22)</f>
+        <v>27</v>
       </c>
       <c r="EU22" s="11">
-        <f t="shared" si="16"/>
-        <v>27.75</v>
+        <f>_xlfn.PERCENTILE.EXC(B22:EQ22,0.25)</f>
+        <v>300000</v>
       </c>
       <c r="EV22" s="11">
-        <f t="shared" si="17"/>
-        <v>243.5</v>
+        <f>MEDIAN(B22:EQ22)</f>
+        <v>300000</v>
       </c>
       <c r="EW22" s="11">
-        <f t="shared" si="18"/>
-        <v>50408.157534246573</v>
+        <f>AVERAGE(B22:EQ22)</f>
+        <v>272307.47945205477</v>
       </c>
       <c r="EX22" s="11">
-        <f t="shared" si="19"/>
-        <v>14128</v>
+        <f>_xlfn.PERCENTILE.EXC(B22:EQ22,0.75)</f>
+        <v>300000</v>
       </c>
       <c r="EY22" s="11">
-        <f t="shared" si="20"/>
+        <f>MAX(B22:EQ22)</f>
         <v>300000</v>
       </c>
     </row>
     <row r="23" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" s="12">
-        <v>300000</v>
+        <v>62</v>
       </c>
       <c r="C23" s="12">
-        <v>300000</v>
+        <v>31</v>
       </c>
       <c r="D23" s="12">
-        <v>300000</v>
+        <v>68</v>
       </c>
       <c r="E23" s="12">
-        <v>300000</v>
+        <v>126</v>
       </c>
       <c r="F23" s="12">
-        <v>300000</v>
+        <v>1129</v>
       </c>
       <c r="G23" s="12">
-        <v>300000</v>
+        <v>55390</v>
       </c>
       <c r="H23" s="12">
+        <v>292</v>
+      </c>
+      <c r="I23" s="12">
+        <v>181</v>
+      </c>
+      <c r="J23" s="12">
+        <v>340</v>
+      </c>
+      <c r="K23" s="12">
+        <v>476</v>
+      </c>
+      <c r="L23" s="12">
+        <v>165</v>
+      </c>
+      <c r="M23" s="12">
+        <v>1045</v>
+      </c>
+      <c r="N23" s="12">
+        <v>851</v>
+      </c>
+      <c r="O23" s="12">
+        <v>486</v>
+      </c>
+      <c r="P23" s="12">
+        <v>1402</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>75821</v>
+      </c>
+      <c r="R23" s="12">
+        <v>3595</v>
+      </c>
+      <c r="S23" s="12">
+        <v>1427</v>
+      </c>
+      <c r="T23" s="12">
+        <v>300000</v>
+      </c>
+      <c r="U23" s="12">
+        <v>4388</v>
+      </c>
+      <c r="V23" s="12">
+        <v>3236</v>
+      </c>
+      <c r="W23" s="12">
+        <v>57</v>
+      </c>
+      <c r="X23" s="12">
+        <v>265</v>
+      </c>
+      <c r="Y23" s="12">
+        <v>1430</v>
+      </c>
+      <c r="Z23" s="12">
+        <v>366</v>
+      </c>
+      <c r="AA23" s="12">
+        <v>1262</v>
+      </c>
+      <c r="AB23" s="12">
+        <v>220</v>
+      </c>
+      <c r="AC23" s="12">
+        <v>426</v>
+      </c>
+      <c r="AD23" s="12">
+        <v>653</v>
+      </c>
+      <c r="AE23" s="12">
+        <v>19294</v>
+      </c>
+      <c r="AF23" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AG23" s="12">
+        <v>135</v>
+      </c>
+      <c r="AH23" s="12">
+        <v>26167</v>
+      </c>
+      <c r="AI23" s="12">
+        <v>7941</v>
+      </c>
+      <c r="AJ23" s="12">
+        <v>45</v>
+      </c>
+      <c r="AK23" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AL23" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AM23" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AN23" s="12">
+        <v>414</v>
+      </c>
+      <c r="AO23" s="12">
+        <v>2363</v>
+      </c>
+      <c r="AP23" s="12">
+        <v>464</v>
+      </c>
+      <c r="AQ23" s="12">
+        <v>516</v>
+      </c>
+      <c r="AR23" s="12">
+        <v>555</v>
+      </c>
+      <c r="AS23" s="12">
+        <v>804</v>
+      </c>
+      <c r="AT23" s="12">
+        <v>107</v>
+      </c>
+      <c r="AU23" s="12">
+        <v>4570</v>
+      </c>
+      <c r="AV23" s="12">
+        <v>55854</v>
+      </c>
+      <c r="AW23" s="12">
+        <v>168</v>
+      </c>
+      <c r="AX23" s="12">
+        <v>53</v>
+      </c>
+      <c r="AY23" s="12">
+        <v>13362</v>
+      </c>
+      <c r="AZ23" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BA23" s="12">
+        <v>13495</v>
+      </c>
+      <c r="BB23" s="12">
+        <v>756</v>
+      </c>
+      <c r="BC23" s="12">
+        <v>159884</v>
+      </c>
+      <c r="BD23" s="12">
+        <v>4715</v>
+      </c>
+      <c r="BE23" s="12">
+        <v>1275</v>
+      </c>
+      <c r="BF23" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BG23" s="12">
+        <v>305</v>
+      </c>
+      <c r="BH23" s="12">
+        <v>8752</v>
+      </c>
+      <c r="BI23" s="12">
+        <v>95</v>
+      </c>
+      <c r="BJ23" s="12">
+        <v>112</v>
+      </c>
+      <c r="BK23" s="12">
+        <v>7792</v>
+      </c>
+      <c r="BL23" s="12">
+        <v>124</v>
+      </c>
+      <c r="BM23" s="12">
+        <v>1305</v>
+      </c>
+      <c r="BN23" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BO23" s="12">
+        <v>4837</v>
+      </c>
+      <c r="BP23" s="12">
+        <v>739</v>
+      </c>
+      <c r="BQ23" s="12">
+        <v>838</v>
+      </c>
+      <c r="BR23" s="12">
+        <v>67</v>
+      </c>
+      <c r="BS23" s="12">
+        <v>46</v>
+      </c>
+      <c r="BT23" s="12">
+        <v>171</v>
+      </c>
+      <c r="BU23" s="12">
+        <v>1047</v>
+      </c>
+      <c r="BV23" s="12">
+        <v>15665</v>
+      </c>
+      <c r="BW23" s="12">
+        <v>3558</v>
+      </c>
+      <c r="BX23" s="12">
+        <v>2527</v>
+      </c>
+      <c r="BY23" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BZ23" s="12">
+        <v>261</v>
+      </c>
+      <c r="CA23" s="12">
+        <v>811</v>
+      </c>
+      <c r="CB23" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CC23" s="12">
+        <v>114</v>
+      </c>
+      <c r="CD23" s="12">
+        <v>141</v>
+      </c>
+      <c r="CE23" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CF23" s="12">
+        <v>130</v>
+      </c>
+      <c r="CG23" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CH23" s="12">
         <v>31</v>
       </c>
-      <c r="I23" s="12">
-        <v>101</v>
-      </c>
-      <c r="J23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="K23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="L23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="M23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="N23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="O23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="P23" s="12">
-        <v>68287</v>
-      </c>
-      <c r="Q23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="R23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="S23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="T23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="U23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="V23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="W23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="X23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="Y23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="Z23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AA23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AB23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AC23" s="12">
-        <v>153</v>
-      </c>
-      <c r="AD23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AE23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AF23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AG23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AH23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AI23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AJ23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AK23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AL23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AM23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AN23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AO23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AP23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AQ23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AR23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AS23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AT23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AU23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AV23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AW23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AX23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AY23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AZ23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BA23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BB23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BC23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BD23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BE23" s="12">
-        <v>7430</v>
-      </c>
-      <c r="BF23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BG23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BH23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BI23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BJ23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BK23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BL23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BM23" s="12">
-        <v>333</v>
-      </c>
-      <c r="BN23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BO23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BP23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BQ23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BR23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BS23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BT23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BU23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BV23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BW23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BX23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BY23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BZ23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CA23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CB23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CC23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CD23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CE23" s="12">
-        <v>68429</v>
-      </c>
-      <c r="CF23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CG23" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CH23" s="12">
-        <v>300000</v>
-      </c>
       <c r="CI23" s="12">
-        <v>300000</v>
+        <v>219</v>
       </c>
       <c r="CJ23" s="12">
-        <v>300000</v>
+        <v>229</v>
       </c>
       <c r="CK23" s="12">
-        <v>300000</v>
+        <v>147</v>
       </c>
       <c r="CL23" s="12">
-        <v>300000</v>
+        <v>21355</v>
       </c>
       <c r="CM23" s="12">
-        <v>248</v>
+        <v>460</v>
       </c>
       <c r="CN23" s="12">
         <v>300000</v>
       </c>
       <c r="CO23" s="12">
-        <v>300000</v>
+        <v>206</v>
       </c>
       <c r="CP23" s="12">
-        <v>300000</v>
+        <v>8014</v>
       </c>
       <c r="CQ23" s="12">
-        <v>300000</v>
+        <v>60</v>
       </c>
       <c r="CR23" s="12">
-        <v>300000</v>
+        <v>5491</v>
       </c>
       <c r="CS23" s="12">
-        <v>300000</v>
+        <v>26335</v>
       </c>
       <c r="CT23" s="12">
-        <v>300000</v>
+        <v>18019</v>
       </c>
       <c r="CU23" s="12">
-        <v>300000</v>
+        <v>987</v>
       </c>
       <c r="CV23" s="12">
-        <v>300000</v>
+        <v>2536</v>
       </c>
       <c r="CW23" s="12">
-        <v>300000</v>
+        <v>57</v>
       </c>
       <c r="CX23" s="12">
-        <v>300000</v>
+        <v>80</v>
       </c>
       <c r="CY23" s="12">
-        <v>300000</v>
+        <v>173</v>
       </c>
       <c r="CZ23" s="12">
-        <v>300000</v>
+        <v>74891</v>
       </c>
       <c r="DA23" s="12">
-        <v>300000</v>
+        <v>9812</v>
       </c>
       <c r="DB23" s="12">
-        <v>300000</v>
+        <v>79</v>
       </c>
       <c r="DC23" s="12">
-        <v>300000</v>
+        <v>201</v>
       </c>
       <c r="DD23" s="12">
-        <v>300000</v>
+        <v>1028</v>
       </c>
       <c r="DE23" s="12">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="DF23" s="12">
-        <v>300000</v>
+        <v>22102</v>
       </c>
       <c r="DG23" s="12">
         <v>300000</v>
       </c>
       <c r="DH23" s="12">
-        <v>300000</v>
+        <v>697</v>
       </c>
       <c r="DI23" s="12">
-        <v>300000</v>
+        <v>65</v>
       </c>
       <c r="DJ23" s="12">
-        <v>300000</v>
+        <v>86</v>
       </c>
       <c r="DK23" s="12">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="DL23" s="12">
-        <v>300000</v>
+        <v>603</v>
       </c>
       <c r="DM23" s="12">
-        <v>300000</v>
+        <v>266</v>
       </c>
       <c r="DN23" s="12">
-        <v>300000</v>
+        <v>11632</v>
       </c>
       <c r="DO23" s="12">
         <v>300000</v>
       </c>
       <c r="DP23" s="12">
-        <v>300000</v>
+        <v>4096</v>
       </c>
       <c r="DQ23" s="12">
-        <v>300000</v>
+        <v>613</v>
       </c>
       <c r="DR23" s="12">
-        <v>300000</v>
+        <v>465</v>
       </c>
       <c r="DS23" s="12">
-        <v>300000</v>
+        <v>181</v>
       </c>
       <c r="DT23" s="12">
         <v>300000</v>
       </c>
       <c r="DU23" s="12">
-        <v>1962</v>
+        <v>13980</v>
       </c>
       <c r="DV23" s="12">
         <v>300000</v>
@@ -20104,49 +20086,49 @@
         <v>300000</v>
       </c>
       <c r="DX23" s="12">
-        <v>300000</v>
+        <v>30467</v>
       </c>
       <c r="DY23" s="12">
-        <v>300000</v>
+        <v>21313</v>
       </c>
       <c r="DZ23" s="12">
         <v>300000</v>
       </c>
       <c r="EA23" s="12">
-        <v>300000</v>
+        <v>54543</v>
       </c>
       <c r="EB23" s="12">
-        <v>5425</v>
+        <v>60897</v>
       </c>
       <c r="EC23" s="12">
         <v>300000</v>
       </c>
       <c r="ED23" s="12">
-        <v>138</v>
+        <v>300000</v>
       </c>
       <c r="EE23" s="12">
-        <v>300000</v>
+        <v>1528</v>
       </c>
       <c r="EF23" s="12">
-        <v>300000</v>
+        <v>30</v>
       </c>
       <c r="EG23" s="12">
         <v>300000</v>
       </c>
       <c r="EH23" s="12">
-        <v>300000</v>
+        <v>52</v>
       </c>
       <c r="EI23" s="12">
-        <v>300000</v>
+        <v>58356</v>
       </c>
       <c r="EJ23" s="12">
         <v>300000</v>
       </c>
       <c r="EK23" s="12">
-        <v>300000</v>
+        <v>113012</v>
       </c>
       <c r="EL23" s="12">
-        <v>300000</v>
+        <v>139642</v>
       </c>
       <c r="EM23" s="12">
         <v>300000</v>
@@ -20155,40 +20137,40 @@
         <v>300000</v>
       </c>
       <c r="EO23" s="12">
-        <v>4290</v>
+        <v>11448</v>
       </c>
       <c r="EP23" s="12">
-        <v>300000</v>
+        <v>3278</v>
       </c>
       <c r="EQ23" s="12">
         <v>300000</v>
       </c>
       <c r="ES23" s="10">
-        <f t="shared" si="14"/>
-        <v>132</v>
+        <f>COUNTIF(B23:EQ23,"&gt;299999")</f>
+        <v>26</v>
       </c>
       <c r="ET23" s="11">
-        <f t="shared" si="15"/>
-        <v>27</v>
+        <f>MIN(B23:EQ23)</f>
+        <v>30</v>
       </c>
       <c r="EU23" s="11">
-        <f t="shared" si="16"/>
-        <v>300000</v>
+        <f>_xlfn.PERCENTILE.EXC(B23:EQ23,0.25)</f>
+        <v>204.75</v>
       </c>
       <c r="EV23" s="11">
-        <f t="shared" si="17"/>
-        <v>300000</v>
+        <f>MEDIAN(B23:EQ23)</f>
+        <v>1290</v>
       </c>
       <c r="EW23" s="11">
-        <f t="shared" si="18"/>
-        <v>272307.47945205477</v>
+        <f>AVERAGE(B23:EQ23)</f>
+        <v>61900.349315068495</v>
       </c>
       <c r="EX23" s="11">
-        <f t="shared" si="19"/>
-        <v>300000</v>
+        <f>_xlfn.PERCENTILE.EXC(B23:EQ23,0.75)</f>
+        <v>36486</v>
       </c>
       <c r="EY23" s="11">
-        <f t="shared" si="20"/>
+        <f>MAX(B23:EQ23)</f>
         <v>300000</v>
       </c>
     </row>
@@ -20665,379 +20647,379 @@
     </row>
     <row r="25" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" s="12">
+        <v>45</v>
+      </c>
+      <c r="C25" s="12">
+        <v>30</v>
+      </c>
+      <c r="D25" s="12">
+        <v>58</v>
+      </c>
+      <c r="E25" s="12">
+        <v>85</v>
+      </c>
+      <c r="F25" s="12">
+        <v>811</v>
+      </c>
+      <c r="G25" s="12">
+        <v>29901</v>
+      </c>
+      <c r="H25" s="12">
+        <v>150</v>
+      </c>
+      <c r="I25" s="12">
+        <v>204</v>
+      </c>
+      <c r="J25" s="12">
+        <v>307</v>
+      </c>
+      <c r="K25" s="12">
+        <v>464</v>
+      </c>
+      <c r="L25" s="12">
+        <v>149</v>
+      </c>
+      <c r="M25" s="12">
+        <v>1388</v>
+      </c>
+      <c r="N25" s="12">
+        <v>483</v>
+      </c>
+      <c r="O25" s="12">
+        <v>382</v>
+      </c>
+      <c r="P25" s="12">
+        <v>798</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>31678</v>
+      </c>
+      <c r="R25" s="12">
+        <v>2499</v>
+      </c>
+      <c r="S25" s="12">
+        <v>1084</v>
+      </c>
+      <c r="T25" s="12">
+        <v>300000</v>
+      </c>
+      <c r="U25" s="12">
+        <v>2758</v>
+      </c>
+      <c r="V25" s="12">
+        <v>1550</v>
+      </c>
+      <c r="W25" s="12">
+        <v>53</v>
+      </c>
+      <c r="X25" s="12">
+        <v>276</v>
+      </c>
+      <c r="Y25" s="12">
+        <v>552</v>
+      </c>
+      <c r="Z25" s="12">
+        <v>192</v>
+      </c>
+      <c r="AA25" s="12">
+        <v>1144</v>
+      </c>
+      <c r="AB25" s="12">
+        <v>141</v>
+      </c>
+      <c r="AC25" s="12">
+        <v>241</v>
+      </c>
+      <c r="AD25" s="12">
+        <v>609</v>
+      </c>
+      <c r="AE25" s="12">
+        <v>7596</v>
+      </c>
+      <c r="AF25" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AG25" s="12">
+        <v>130</v>
+      </c>
+      <c r="AH25" s="12">
+        <v>12501</v>
+      </c>
+      <c r="AI25" s="12">
+        <v>3521</v>
+      </c>
+      <c r="AJ25" s="12">
+        <v>38</v>
+      </c>
+      <c r="AK25" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AL25" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AM25" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AN25" s="12">
+        <v>242</v>
+      </c>
+      <c r="AO25" s="12">
+        <v>1290</v>
+      </c>
+      <c r="AP25" s="12">
+        <v>357</v>
+      </c>
+      <c r="AQ25" s="12">
+        <v>351</v>
+      </c>
+      <c r="AR25" s="12">
+        <v>358</v>
+      </c>
+      <c r="AS25" s="12">
+        <v>727</v>
+      </c>
+      <c r="AT25" s="12">
+        <v>80</v>
+      </c>
+      <c r="AU25" s="12">
+        <v>2073</v>
+      </c>
+      <c r="AV25" s="12">
+        <v>35512</v>
+      </c>
+      <c r="AW25" s="12">
+        <v>121</v>
+      </c>
+      <c r="AX25" s="12">
+        <v>51</v>
+      </c>
+      <c r="AY25" s="12">
+        <v>6565</v>
+      </c>
+      <c r="AZ25" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BA25" s="12">
+        <v>6632</v>
+      </c>
+      <c r="BB25" s="12">
+        <v>399</v>
+      </c>
+      <c r="BC25" s="12">
+        <v>75936</v>
+      </c>
+      <c r="BD25" s="12">
+        <v>2010</v>
+      </c>
+      <c r="BE25" s="12">
+        <v>792</v>
+      </c>
+      <c r="BF25" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BG25" s="12">
+        <v>225</v>
+      </c>
+      <c r="BH25" s="12">
+        <v>5019</v>
+      </c>
+      <c r="BI25" s="12">
+        <v>78</v>
+      </c>
+      <c r="BJ25" s="12">
+        <v>110</v>
+      </c>
+      <c r="BK25" s="12">
+        <v>3389</v>
+      </c>
+      <c r="BL25" s="12">
+        <v>84</v>
+      </c>
+      <c r="BM25" s="12">
+        <v>571</v>
+      </c>
+      <c r="BN25" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BO25" s="12">
+        <v>2054</v>
+      </c>
+      <c r="BP25" s="12">
+        <v>476</v>
+      </c>
+      <c r="BQ25" s="12">
+        <v>427</v>
+      </c>
+      <c r="BR25" s="12">
+        <v>57</v>
+      </c>
+      <c r="BS25" s="12">
+        <v>45</v>
+      </c>
+      <c r="BT25" s="12">
+        <v>123</v>
+      </c>
+      <c r="BU25" s="12">
+        <v>1376</v>
+      </c>
+      <c r="BV25" s="12">
+        <v>6965</v>
+      </c>
+      <c r="BW25" s="12">
+        <v>1577</v>
+      </c>
+      <c r="BX25" s="12">
+        <v>1032</v>
+      </c>
+      <c r="BY25" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BZ25" s="12">
+        <v>223</v>
+      </c>
+      <c r="CA25" s="12">
+        <v>465</v>
+      </c>
+      <c r="CB25" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CC25" s="12">
+        <v>112</v>
+      </c>
+      <c r="CD25" s="12">
+        <v>125</v>
+      </c>
+      <c r="CE25" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CF25" s="12">
+        <v>126</v>
+      </c>
+      <c r="CG25" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CH25" s="12">
+        <v>30</v>
+      </c>
+      <c r="CI25" s="12">
+        <v>136</v>
+      </c>
+      <c r="CJ25" s="12">
+        <v>142</v>
+      </c>
+      <c r="CK25" s="12">
+        <v>119</v>
+      </c>
+      <c r="CL25" s="12">
+        <v>11129</v>
+      </c>
+      <c r="CM25" s="12">
+        <v>252</v>
+      </c>
+      <c r="CN25" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CO25" s="12">
+        <v>149</v>
+      </c>
+      <c r="CP25" s="12">
+        <v>4267</v>
+      </c>
+      <c r="CQ25" s="12">
+        <v>56</v>
+      </c>
+      <c r="CR25" s="12">
+        <v>3048</v>
+      </c>
+      <c r="CS25" s="12">
+        <v>11983</v>
+      </c>
+      <c r="CT25" s="12">
+        <v>8943</v>
+      </c>
+      <c r="CU25" s="12">
+        <v>982</v>
+      </c>
+      <c r="CV25" s="12">
+        <v>1239</v>
+      </c>
+      <c r="CW25" s="12">
+        <v>43</v>
+      </c>
+      <c r="CX25" s="12">
+        <v>68</v>
+      </c>
+      <c r="CY25" s="12">
+        <v>158</v>
+      </c>
+      <c r="CZ25" s="12">
+        <v>36675</v>
+      </c>
+      <c r="DA25" s="12">
+        <v>4975</v>
+      </c>
+      <c r="DB25" s="12">
+        <v>55</v>
+      </c>
+      <c r="DC25" s="12">
+        <v>127</v>
+      </c>
+      <c r="DD25" s="12">
+        <v>964</v>
+      </c>
+      <c r="DE25" s="12">
         <v>62</v>
       </c>
-      <c r="C25" s="12">
-        <v>31</v>
-      </c>
-      <c r="D25" s="12">
-        <v>68</v>
-      </c>
-      <c r="E25" s="12">
-        <v>126</v>
-      </c>
-      <c r="F25" s="12">
-        <v>1129</v>
-      </c>
-      <c r="G25" s="12">
-        <v>55390</v>
-      </c>
-      <c r="H25" s="12">
-        <v>292</v>
-      </c>
-      <c r="I25" s="12">
-        <v>181</v>
-      </c>
-      <c r="J25" s="12">
-        <v>340</v>
-      </c>
-      <c r="K25" s="12">
-        <v>476</v>
-      </c>
-      <c r="L25" s="12">
-        <v>165</v>
-      </c>
-      <c r="M25" s="12">
-        <v>1045</v>
-      </c>
-      <c r="N25" s="12">
-        <v>851</v>
-      </c>
-      <c r="O25" s="12">
-        <v>486</v>
-      </c>
-      <c r="P25" s="12">
-        <v>1402</v>
-      </c>
-      <c r="Q25" s="12">
-        <v>75821</v>
-      </c>
-      <c r="R25" s="12">
-        <v>3595</v>
-      </c>
-      <c r="S25" s="12">
-        <v>1427</v>
-      </c>
-      <c r="T25" s="12">
-        <v>300000</v>
-      </c>
-      <c r="U25" s="12">
-        <v>4388</v>
-      </c>
-      <c r="V25" s="12">
-        <v>3236</v>
-      </c>
-      <c r="W25" s="12">
-        <v>57</v>
-      </c>
-      <c r="X25" s="12">
-        <v>265</v>
-      </c>
-      <c r="Y25" s="12">
-        <v>1430</v>
-      </c>
-      <c r="Z25" s="12">
-        <v>366</v>
-      </c>
-      <c r="AA25" s="12">
-        <v>1262</v>
-      </c>
-      <c r="AB25" s="12">
-        <v>220</v>
-      </c>
-      <c r="AC25" s="12">
-        <v>426</v>
-      </c>
-      <c r="AD25" s="12">
-        <v>653</v>
-      </c>
-      <c r="AE25" s="12">
-        <v>19294</v>
-      </c>
-      <c r="AF25" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AG25" s="12">
-        <v>135</v>
-      </c>
-      <c r="AH25" s="12">
-        <v>26167</v>
-      </c>
-      <c r="AI25" s="12">
-        <v>7941</v>
-      </c>
-      <c r="AJ25" s="12">
-        <v>45</v>
-      </c>
-      <c r="AK25" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AL25" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AM25" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AN25" s="12">
-        <v>414</v>
-      </c>
-      <c r="AO25" s="12">
-        <v>2363</v>
-      </c>
-      <c r="AP25" s="12">
-        <v>464</v>
-      </c>
-      <c r="AQ25" s="12">
-        <v>516</v>
-      </c>
-      <c r="AR25" s="12">
-        <v>555</v>
-      </c>
-      <c r="AS25" s="12">
-        <v>804</v>
-      </c>
-      <c r="AT25" s="12">
-        <v>107</v>
-      </c>
-      <c r="AU25" s="12">
-        <v>4570</v>
-      </c>
-      <c r="AV25" s="12">
-        <v>55854</v>
-      </c>
-      <c r="AW25" s="12">
-        <v>168</v>
-      </c>
-      <c r="AX25" s="12">
-        <v>53</v>
-      </c>
-      <c r="AY25" s="12">
-        <v>13362</v>
-      </c>
-      <c r="AZ25" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BA25" s="12">
-        <v>13495</v>
-      </c>
-      <c r="BB25" s="12">
-        <v>756</v>
-      </c>
-      <c r="BC25" s="12">
-        <v>159884</v>
-      </c>
-      <c r="BD25" s="12">
-        <v>4715</v>
-      </c>
-      <c r="BE25" s="12">
-        <v>1275</v>
-      </c>
-      <c r="BF25" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BG25" s="12">
-        <v>305</v>
-      </c>
-      <c r="BH25" s="12">
-        <v>8752</v>
-      </c>
-      <c r="BI25" s="12">
-        <v>95</v>
-      </c>
-      <c r="BJ25" s="12">
-        <v>112</v>
-      </c>
-      <c r="BK25" s="12">
-        <v>7792</v>
-      </c>
-      <c r="BL25" s="12">
-        <v>124</v>
-      </c>
-      <c r="BM25" s="12">
-        <v>1305</v>
-      </c>
-      <c r="BN25" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BO25" s="12">
-        <v>4837</v>
-      </c>
-      <c r="BP25" s="12">
-        <v>739</v>
-      </c>
-      <c r="BQ25" s="12">
-        <v>838</v>
-      </c>
-      <c r="BR25" s="12">
-        <v>67</v>
-      </c>
-      <c r="BS25" s="12">
-        <v>46</v>
-      </c>
-      <c r="BT25" s="12">
-        <v>171</v>
-      </c>
-      <c r="BU25" s="12">
-        <v>1047</v>
-      </c>
-      <c r="BV25" s="12">
-        <v>15665</v>
-      </c>
-      <c r="BW25" s="12">
-        <v>3558</v>
-      </c>
-      <c r="BX25" s="12">
-        <v>2527</v>
-      </c>
-      <c r="BY25" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BZ25" s="12">
-        <v>261</v>
-      </c>
-      <c r="CA25" s="12">
-        <v>811</v>
-      </c>
-      <c r="CB25" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CC25" s="12">
-        <v>114</v>
-      </c>
-      <c r="CD25" s="12">
-        <v>141</v>
-      </c>
-      <c r="CE25" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CF25" s="12">
-        <v>130</v>
-      </c>
-      <c r="CG25" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CH25" s="12">
-        <v>31</v>
-      </c>
-      <c r="CI25" s="12">
-        <v>219</v>
-      </c>
-      <c r="CJ25" s="12">
-        <v>229</v>
-      </c>
-      <c r="CK25" s="12">
-        <v>147</v>
-      </c>
-      <c r="CL25" s="12">
-        <v>21355</v>
-      </c>
-      <c r="CM25" s="12">
-        <v>460</v>
-      </c>
-      <c r="CN25" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CO25" s="12">
-        <v>206</v>
-      </c>
-      <c r="CP25" s="12">
-        <v>8014</v>
-      </c>
-      <c r="CQ25" s="12">
-        <v>60</v>
-      </c>
-      <c r="CR25" s="12">
-        <v>5491</v>
-      </c>
-      <c r="CS25" s="12">
-        <v>26335</v>
-      </c>
-      <c r="CT25" s="12">
-        <v>18019</v>
-      </c>
-      <c r="CU25" s="12">
-        <v>987</v>
-      </c>
-      <c r="CV25" s="12">
-        <v>2536</v>
-      </c>
-      <c r="CW25" s="12">
-        <v>57</v>
-      </c>
-      <c r="CX25" s="12">
-        <v>80</v>
-      </c>
-      <c r="CY25" s="12">
-        <v>173</v>
-      </c>
-      <c r="CZ25" s="12">
-        <v>74891</v>
-      </c>
-      <c r="DA25" s="12">
-        <v>9812</v>
-      </c>
-      <c r="DB25" s="12">
-        <v>79</v>
-      </c>
-      <c r="DC25" s="12">
-        <v>201</v>
-      </c>
-      <c r="DD25" s="12">
-        <v>1028</v>
-      </c>
-      <c r="DE25" s="12">
-        <v>71</v>
-      </c>
       <c r="DF25" s="12">
-        <v>22102</v>
+        <v>9815</v>
       </c>
       <c r="DG25" s="12">
         <v>300000</v>
       </c>
       <c r="DH25" s="12">
-        <v>697</v>
+        <v>600</v>
       </c>
       <c r="DI25" s="12">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="DJ25" s="12">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="DK25" s="12">
         <v>54</v>
       </c>
       <c r="DL25" s="12">
-        <v>603</v>
+        <v>405</v>
       </c>
       <c r="DM25" s="12">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="DN25" s="12">
-        <v>11632</v>
+        <v>6585</v>
       </c>
       <c r="DO25" s="12">
         <v>300000</v>
       </c>
       <c r="DP25" s="12">
-        <v>4096</v>
+        <v>2374</v>
       </c>
       <c r="DQ25" s="12">
-        <v>613</v>
+        <v>474</v>
       </c>
       <c r="DR25" s="12">
-        <v>465</v>
+        <v>294</v>
       </c>
       <c r="DS25" s="12">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="DT25" s="12">
         <v>300000</v>
       </c>
       <c r="DU25" s="12">
-        <v>13980</v>
+        <v>5658</v>
       </c>
       <c r="DV25" s="12">
         <v>300000</v>
@@ -21046,19 +21028,19 @@
         <v>300000</v>
       </c>
       <c r="DX25" s="12">
-        <v>30467</v>
+        <v>14581</v>
       </c>
       <c r="DY25" s="12">
-        <v>21313</v>
+        <v>18269</v>
       </c>
       <c r="DZ25" s="12">
-        <v>300000</v>
+        <v>176968</v>
       </c>
       <c r="EA25" s="12">
-        <v>54543</v>
+        <v>25853</v>
       </c>
       <c r="EB25" s="12">
-        <v>60897</v>
+        <v>29305</v>
       </c>
       <c r="EC25" s="12">
         <v>300000</v>
@@ -21067,28 +21049,28 @@
         <v>300000</v>
       </c>
       <c r="EE25" s="12">
-        <v>1528</v>
+        <v>855</v>
       </c>
       <c r="EF25" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="EG25" s="12">
         <v>300000</v>
       </c>
       <c r="EH25" s="12">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="EI25" s="12">
-        <v>58356</v>
+        <v>20187</v>
       </c>
       <c r="EJ25" s="12">
         <v>300000</v>
       </c>
       <c r="EK25" s="12">
-        <v>113012</v>
+        <v>55605</v>
       </c>
       <c r="EL25" s="12">
-        <v>139642</v>
+        <v>60511</v>
       </c>
       <c r="EM25" s="12">
         <v>300000</v>
@@ -21097,511 +21079,511 @@
         <v>300000</v>
       </c>
       <c r="EO25" s="12">
-        <v>11448</v>
+        <v>4969</v>
       </c>
       <c r="EP25" s="12">
-        <v>3278</v>
+        <v>1486</v>
       </c>
       <c r="EQ25" s="12">
         <v>300000</v>
       </c>
       <c r="ES25" s="10">
-        <f t="shared" si="14"/>
-        <v>26</v>
+        <f>COUNTIF(B25:EQ25,"&gt;299999")</f>
+        <v>25</v>
       </c>
       <c r="ET25" s="11">
-        <f t="shared" si="15"/>
-        <v>30</v>
+        <f>MIN(B25:EQ25)</f>
+        <v>28</v>
       </c>
       <c r="EU25" s="11">
-        <f t="shared" si="16"/>
-        <v>204.75</v>
+        <f>_xlfn.PERCENTILE.EXC(B25:EQ25,0.25)</f>
+        <v>149</v>
       </c>
       <c r="EV25" s="11">
-        <f t="shared" si="17"/>
-        <v>1290</v>
+        <f>MEDIAN(B25:EQ25)</f>
+        <v>973</v>
       </c>
       <c r="EW25" s="11">
-        <f t="shared" si="18"/>
-        <v>61900.349315068495</v>
+        <f>AVERAGE(B25:EQ25)</f>
+        <v>56719.705479452052</v>
       </c>
       <c r="EX25" s="11">
-        <f t="shared" si="19"/>
-        <v>36486</v>
+        <f>_xlfn.PERCENTILE.EXC(B25:EQ25,0.75)</f>
+        <v>18748.5</v>
       </c>
       <c r="EY25" s="11">
-        <f t="shared" si="20"/>
+        <f>MAX(B25:EQ25)</f>
         <v>300000</v>
       </c>
     </row>
     <row r="26" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="12">
+        <v>24</v>
+      </c>
+      <c r="C26" s="12">
+        <v>5</v>
+      </c>
+      <c r="D26" s="12">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12">
+        <v>35</v>
+      </c>
+      <c r="F26" s="12">
+        <v>440</v>
+      </c>
+      <c r="G26" s="12">
+        <v>9913</v>
+      </c>
+      <c r="H26" s="12">
+        <v>32</v>
+      </c>
+      <c r="I26" s="12">
         <v>6</v>
       </c>
-      <c r="B26" s="12">
-        <v>45</v>
-      </c>
-      <c r="C26" s="12">
-        <v>30</v>
-      </c>
-      <c r="D26" s="12">
-        <v>58</v>
-      </c>
-      <c r="E26" s="12">
-        <v>85</v>
-      </c>
-      <c r="F26" s="12">
-        <v>811</v>
-      </c>
-      <c r="G26" s="12">
-        <v>29901</v>
-      </c>
-      <c r="H26" s="12">
-        <v>150</v>
-      </c>
-      <c r="I26" s="12">
-        <v>204</v>
-      </c>
       <c r="J26" s="12">
-        <v>307</v>
+        <v>17</v>
       </c>
       <c r="K26" s="12">
-        <v>464</v>
+        <v>27</v>
       </c>
       <c r="L26" s="12">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="M26" s="12">
-        <v>1388</v>
+        <v>22</v>
       </c>
       <c r="N26" s="12">
-        <v>483</v>
+        <v>8286</v>
       </c>
       <c r="O26" s="12">
-        <v>382</v>
+        <v>129</v>
       </c>
       <c r="P26" s="12">
-        <v>798</v>
+        <v>300000</v>
       </c>
       <c r="Q26" s="12">
-        <v>31678</v>
+        <v>300000</v>
       </c>
       <c r="R26" s="12">
-        <v>2499</v>
+        <v>1637</v>
       </c>
       <c r="S26" s="12">
-        <v>1084</v>
+        <v>237</v>
       </c>
       <c r="T26" s="12">
-        <v>300000</v>
+        <v>528</v>
       </c>
       <c r="U26" s="12">
-        <v>2758</v>
+        <v>662</v>
       </c>
       <c r="V26" s="12">
-        <v>1550</v>
+        <v>774</v>
       </c>
       <c r="W26" s="12">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="X26" s="12">
-        <v>276</v>
+        <v>29</v>
       </c>
       <c r="Y26" s="12">
-        <v>552</v>
+        <v>243</v>
       </c>
       <c r="Z26" s="12">
+        <v>166</v>
+      </c>
+      <c r="AA26" s="12">
+        <v>133</v>
+      </c>
+      <c r="AB26" s="12">
+        <v>70</v>
+      </c>
+      <c r="AC26" s="12">
+        <v>117</v>
+      </c>
+      <c r="AD26" s="12">
+        <v>51</v>
+      </c>
+      <c r="AE26" s="12">
+        <v>2718</v>
+      </c>
+      <c r="AF26" s="12">
+        <v>42</v>
+      </c>
+      <c r="AG26" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AH26" s="12">
+        <v>11587</v>
+      </c>
+      <c r="AI26" s="12">
+        <v>202</v>
+      </c>
+      <c r="AJ26" s="12">
+        <v>12</v>
+      </c>
+      <c r="AK26" s="12">
+        <v>295120</v>
+      </c>
+      <c r="AL26" s="12">
+        <v>300000</v>
+      </c>
+      <c r="AM26" s="12">
+        <v>16987</v>
+      </c>
+      <c r="AN26" s="12">
+        <v>183</v>
+      </c>
+      <c r="AO26" s="12">
+        <v>34434</v>
+      </c>
+      <c r="AP26" s="12">
+        <v>987</v>
+      </c>
+      <c r="AQ26" s="12">
+        <v>21462</v>
+      </c>
+      <c r="AR26" s="12">
+        <v>21418</v>
+      </c>
+      <c r="AS26" s="12">
+        <v>26</v>
+      </c>
+      <c r="AT26" s="12">
+        <v>29</v>
+      </c>
+      <c r="AU26" s="12">
+        <v>23</v>
+      </c>
+      <c r="AV26" s="12">
+        <v>2892</v>
+      </c>
+      <c r="AW26" s="12">
+        <v>60</v>
+      </c>
+      <c r="AX26" s="12">
+        <v>13175</v>
+      </c>
+      <c r="AY26" s="12">
+        <v>6380</v>
+      </c>
+      <c r="AZ26" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BA26" s="12">
+        <v>3922</v>
+      </c>
+      <c r="BB26" s="12">
         <v>192</v>
       </c>
-      <c r="AA26" s="12">
-        <v>1144</v>
-      </c>
-      <c r="AB26" s="12">
-        <v>141</v>
-      </c>
-      <c r="AC26" s="12">
-        <v>241</v>
-      </c>
-      <c r="AD26" s="12">
-        <v>609</v>
-      </c>
-      <c r="AE26" s="12">
-        <v>7596</v>
-      </c>
-      <c r="AF26" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AG26" s="12">
-        <v>130</v>
-      </c>
-      <c r="AH26" s="12">
-        <v>12501</v>
-      </c>
-      <c r="AI26" s="12">
-        <v>3521</v>
-      </c>
-      <c r="AJ26" s="12">
-        <v>38</v>
-      </c>
-      <c r="AK26" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AL26" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AM26" s="12">
-        <v>300000</v>
-      </c>
-      <c r="AN26" s="12">
-        <v>242</v>
-      </c>
-      <c r="AO26" s="12">
-        <v>1290</v>
-      </c>
-      <c r="AP26" s="12">
-        <v>357</v>
-      </c>
-      <c r="AQ26" s="12">
-        <v>351</v>
-      </c>
-      <c r="AR26" s="12">
-        <v>358</v>
-      </c>
-      <c r="AS26" s="12">
-        <v>727</v>
-      </c>
-      <c r="AT26" s="12">
-        <v>80</v>
-      </c>
-      <c r="AU26" s="12">
-        <v>2073</v>
-      </c>
-      <c r="AV26" s="12">
-        <v>35512</v>
-      </c>
-      <c r="AW26" s="12">
-        <v>121</v>
-      </c>
-      <c r="AX26" s="12">
+      <c r="BC26" s="12">
+        <v>17966</v>
+      </c>
+      <c r="BD26" s="12">
+        <v>5340</v>
+      </c>
+      <c r="BE26" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BF26" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BG26" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BH26" s="12">
+        <v>4527</v>
+      </c>
+      <c r="BI26" s="12">
+        <v>22</v>
+      </c>
+      <c r="BJ26" s="12">
+        <v>7</v>
+      </c>
+      <c r="BK26" s="12">
+        <v>2986</v>
+      </c>
+      <c r="BL26" s="12">
+        <v>20</v>
+      </c>
+      <c r="BM26" s="12">
+        <v>568</v>
+      </c>
+      <c r="BN26" s="12">
+        <v>40085</v>
+      </c>
+      <c r="BO26" s="12">
+        <v>939</v>
+      </c>
+      <c r="BP26" s="12">
+        <v>244</v>
+      </c>
+      <c r="BQ26" s="12">
+        <v>166</v>
+      </c>
+      <c r="BR26" s="12">
+        <v>10</v>
+      </c>
+      <c r="BS26" s="12">
+        <v>5</v>
+      </c>
+      <c r="BT26" s="12">
+        <v>13</v>
+      </c>
+      <c r="BU26" s="12">
+        <v>22</v>
+      </c>
+      <c r="BV26" s="12">
+        <v>1705</v>
+      </c>
+      <c r="BW26" s="12">
+        <v>254</v>
+      </c>
+      <c r="BX26" s="12">
+        <v>300000</v>
+      </c>
+      <c r="BY26" s="12">
+        <v>4595</v>
+      </c>
+      <c r="BZ26" s="12">
+        <v>90</v>
+      </c>
+      <c r="CA26" s="12">
+        <v>428</v>
+      </c>
+      <c r="CB26" s="12">
+        <v>79774</v>
+      </c>
+      <c r="CC26" s="12">
+        <v>11</v>
+      </c>
+      <c r="CD26" s="12">
+        <v>14</v>
+      </c>
+      <c r="CE26" s="12">
+        <v>86833</v>
+      </c>
+      <c r="CF26" s="12">
+        <v>14</v>
+      </c>
+      <c r="CG26" s="12">
+        <v>34285</v>
+      </c>
+      <c r="CH26" s="12">
+        <v>4</v>
+      </c>
+      <c r="CI26" s="12">
         <v>51</v>
       </c>
-      <c r="AY26" s="12">
-        <v>6565</v>
-      </c>
-      <c r="AZ26" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BA26" s="12">
-        <v>6632</v>
-      </c>
-      <c r="BB26" s="12">
-        <v>399</v>
-      </c>
-      <c r="BC26" s="12">
-        <v>75936</v>
-      </c>
-      <c r="BD26" s="12">
-        <v>2010</v>
-      </c>
-      <c r="BE26" s="12">
-        <v>792</v>
-      </c>
-      <c r="BF26" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BG26" s="12">
-        <v>225</v>
-      </c>
-      <c r="BH26" s="12">
-        <v>5019</v>
-      </c>
-      <c r="BI26" s="12">
-        <v>78</v>
-      </c>
-      <c r="BJ26" s="12">
-        <v>110</v>
-      </c>
-      <c r="BK26" s="12">
-        <v>3389</v>
-      </c>
-      <c r="BL26" s="12">
-        <v>84</v>
-      </c>
-      <c r="BM26" s="12">
-        <v>571</v>
-      </c>
-      <c r="BN26" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BO26" s="12">
-        <v>2054</v>
-      </c>
-      <c r="BP26" s="12">
-        <v>476</v>
-      </c>
-      <c r="BQ26" s="12">
-        <v>427</v>
-      </c>
-      <c r="BR26" s="12">
-        <v>57</v>
-      </c>
-      <c r="BS26" s="12">
-        <v>45</v>
-      </c>
-      <c r="BT26" s="12">
-        <v>123</v>
-      </c>
-      <c r="BU26" s="12">
-        <v>1376</v>
-      </c>
-      <c r="BV26" s="12">
-        <v>6965</v>
-      </c>
-      <c r="BW26" s="12">
-        <v>1577</v>
-      </c>
-      <c r="BX26" s="12">
-        <v>1032</v>
-      </c>
-      <c r="BY26" s="12">
-        <v>300000</v>
-      </c>
-      <c r="BZ26" s="12">
-        <v>223</v>
-      </c>
-      <c r="CA26" s="12">
-        <v>465</v>
-      </c>
-      <c r="CB26" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CC26" s="12">
-        <v>112</v>
-      </c>
-      <c r="CD26" s="12">
-        <v>125</v>
-      </c>
-      <c r="CE26" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CF26" s="12">
-        <v>126</v>
-      </c>
-      <c r="CG26" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CH26" s="12">
-        <v>30</v>
-      </c>
-      <c r="CI26" s="12">
-        <v>136</v>
-      </c>
       <c r="CJ26" s="12">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="CK26" s="12">
+        <v>201</v>
+      </c>
+      <c r="CL26" s="12">
+        <v>111</v>
+      </c>
+      <c r="CM26" s="12">
+        <v>105</v>
+      </c>
+      <c r="CN26" s="12">
+        <v>300000</v>
+      </c>
+      <c r="CO26" s="12">
+        <v>47</v>
+      </c>
+      <c r="CP26" s="12">
+        <v>3629</v>
+      </c>
+      <c r="CQ26" s="12">
+        <v>7</v>
+      </c>
+      <c r="CR26" s="12">
+        <v>360</v>
+      </c>
+      <c r="CS26" s="12">
+        <v>52</v>
+      </c>
+      <c r="CT26" s="12">
+        <v>228</v>
+      </c>
+      <c r="CU26" s="12">
+        <v>77</v>
+      </c>
+      <c r="CV26" s="12">
+        <v>30083</v>
+      </c>
+      <c r="CW26" s="12">
+        <v>16</v>
+      </c>
+      <c r="CX26" s="12">
+        <v>1228</v>
+      </c>
+      <c r="CY26" s="12">
+        <v>28</v>
+      </c>
+      <c r="CZ26" s="12">
+        <v>21205</v>
+      </c>
+      <c r="DA26" s="12">
+        <v>2042</v>
+      </c>
+      <c r="DB26" s="12">
+        <v>8</v>
+      </c>
+      <c r="DC26" s="12">
+        <v>40</v>
+      </c>
+      <c r="DD26" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DE26" s="12">
+        <v>8</v>
+      </c>
+      <c r="DF26" s="12">
+        <v>11</v>
+      </c>
+      <c r="DG26" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DH26" s="12">
+        <v>39</v>
+      </c>
+      <c r="DI26" s="12">
+        <v>17</v>
+      </c>
+      <c r="DJ26" s="12">
+        <v>17</v>
+      </c>
+      <c r="DK26" s="12">
+        <v>7</v>
+      </c>
+      <c r="DL26" s="12">
+        <v>208</v>
+      </c>
+      <c r="DM26" s="12">
+        <v>11</v>
+      </c>
+      <c r="DN26" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DO26" s="12">
+        <v>1361</v>
+      </c>
+      <c r="DP26" s="12">
+        <v>2675</v>
+      </c>
+      <c r="DQ26" s="12">
+        <v>488</v>
+      </c>
+      <c r="DR26" s="12">
+        <v>118</v>
+      </c>
+      <c r="DS26" s="12">
+        <v>28</v>
+      </c>
+      <c r="DT26" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DU26" s="12">
+        <v>143</v>
+      </c>
+      <c r="DV26" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DW26" s="12">
+        <v>6</v>
+      </c>
+      <c r="DX26" s="12">
+        <v>300000</v>
+      </c>
+      <c r="DY26" s="12">
+        <v>167</v>
+      </c>
+      <c r="DZ26" s="12">
+        <v>17</v>
+      </c>
+      <c r="EA26" s="12">
+        <v>264</v>
+      </c>
+      <c r="EB26" s="12">
+        <v>6197</v>
+      </c>
+      <c r="EC26" s="12">
+        <v>201296</v>
+      </c>
+      <c r="ED26" s="12">
         <v>119</v>
       </c>
-      <c r="CL26" s="12">
-        <v>11129</v>
-      </c>
-      <c r="CM26" s="12">
-        <v>252</v>
-      </c>
-      <c r="CN26" s="12">
-        <v>300000</v>
-      </c>
-      <c r="CO26" s="12">
-        <v>149</v>
-      </c>
-      <c r="CP26" s="12">
-        <v>4267</v>
-      </c>
-      <c r="CQ26" s="12">
-        <v>56</v>
-      </c>
-      <c r="CR26" s="12">
-        <v>3048</v>
-      </c>
-      <c r="CS26" s="12">
-        <v>11983</v>
-      </c>
-      <c r="CT26" s="12">
-        <v>8943</v>
-      </c>
-      <c r="CU26" s="12">
-        <v>982</v>
-      </c>
-      <c r="CV26" s="12">
-        <v>1239</v>
-      </c>
-      <c r="CW26" s="12">
-        <v>43</v>
-      </c>
-      <c r="CX26" s="12">
-        <v>68</v>
-      </c>
-      <c r="CY26" s="12">
-        <v>158</v>
-      </c>
-      <c r="CZ26" s="12">
-        <v>36675</v>
-      </c>
-      <c r="DA26" s="12">
-        <v>4975</v>
-      </c>
-      <c r="DB26" s="12">
-        <v>55</v>
-      </c>
-      <c r="DC26" s="12">
-        <v>127</v>
-      </c>
-      <c r="DD26" s="12">
-        <v>964</v>
-      </c>
-      <c r="DE26" s="12">
-        <v>62</v>
-      </c>
-      <c r="DF26" s="12">
-        <v>9815</v>
-      </c>
-      <c r="DG26" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DH26" s="12">
-        <v>600</v>
-      </c>
-      <c r="DI26" s="12">
-        <v>49</v>
-      </c>
-      <c r="DJ26" s="12">
-        <v>75</v>
-      </c>
-      <c r="DK26" s="12">
-        <v>54</v>
-      </c>
-      <c r="DL26" s="12">
-        <v>405</v>
-      </c>
-      <c r="DM26" s="12">
-        <v>252</v>
-      </c>
-      <c r="DN26" s="12">
-        <v>6585</v>
-      </c>
-      <c r="DO26" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DP26" s="12">
-        <v>2374</v>
-      </c>
-      <c r="DQ26" s="12">
-        <v>474</v>
-      </c>
-      <c r="DR26" s="12">
-        <v>294</v>
-      </c>
-      <c r="DS26" s="12">
-        <v>206</v>
-      </c>
-      <c r="DT26" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DU26" s="12">
-        <v>5658</v>
-      </c>
-      <c r="DV26" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DW26" s="12">
-        <v>300000</v>
-      </c>
-      <c r="DX26" s="12">
-        <v>14581</v>
-      </c>
-      <c r="DY26" s="12">
-        <v>18269</v>
-      </c>
-      <c r="DZ26" s="12">
-        <v>176968</v>
-      </c>
-      <c r="EA26" s="12">
-        <v>25853</v>
-      </c>
-      <c r="EB26" s="12">
-        <v>29305</v>
-      </c>
-      <c r="EC26" s="12">
-        <v>300000</v>
-      </c>
-      <c r="ED26" s="12">
-        <v>300000</v>
-      </c>
       <c r="EE26" s="12">
-        <v>855</v>
+        <v>788</v>
       </c>
       <c r="EF26" s="12">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="EG26" s="12">
-        <v>300000</v>
+        <v>264813</v>
       </c>
       <c r="EH26" s="12">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="EI26" s="12">
-        <v>20187</v>
+        <v>19847</v>
       </c>
       <c r="EJ26" s="12">
         <v>300000</v>
       </c>
       <c r="EK26" s="12">
-        <v>55605</v>
+        <v>4390</v>
       </c>
       <c r="EL26" s="12">
-        <v>60511</v>
+        <v>5040</v>
       </c>
       <c r="EM26" s="12">
         <v>300000</v>
       </c>
       <c r="EN26" s="12">
-        <v>300000</v>
+        <v>55098</v>
       </c>
       <c r="EO26" s="12">
-        <v>4969</v>
+        <v>300000</v>
       </c>
       <c r="EP26" s="12">
-        <v>1486</v>
+        <v>439</v>
       </c>
       <c r="EQ26" s="12">
         <v>300000</v>
       </c>
       <c r="ES26" s="10">
-        <f t="shared" si="14"/>
-        <v>25</v>
+        <f>COUNTIF(B26:EQ26,"&gt;299999")</f>
+        <v>20</v>
       </c>
       <c r="ET26" s="11">
-        <f t="shared" si="15"/>
-        <v>28</v>
+        <f>MIN(B26:EQ26)</f>
+        <v>3</v>
       </c>
       <c r="EU26" s="11">
-        <f t="shared" si="16"/>
-        <v>149</v>
+        <f>_xlfn.PERCENTILE.EXC(B26:EQ26,0.25)</f>
+        <v>27.75</v>
       </c>
       <c r="EV26" s="11">
-        <f t="shared" si="17"/>
-        <v>973</v>
+        <f>MEDIAN(B26:EQ26)</f>
+        <v>243.5</v>
       </c>
       <c r="EW26" s="11">
-        <f t="shared" si="18"/>
-        <v>56719.705479452052</v>
+        <f>AVERAGE(B26:EQ26)</f>
+        <v>50408.157534246573</v>
       </c>
       <c r="EX26" s="11">
-        <f t="shared" si="19"/>
-        <v>18748.5</v>
+        <f>_xlfn.PERCENTILE.EXC(B26:EQ26,0.75)</f>
+        <v>14128</v>
       </c>
       <c r="EY26" s="11">
-        <f t="shared" si="20"/>
+        <f>MAX(B26:EQ26)</f>
         <v>300000</v>
       </c>
     </row>
